--- a/ranked_players.xlsx
+++ b/ranked_players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C565"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.796843744537712</v>
+        <v>7.752647314138537</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.161398344412527</v>
+        <v>7.092686108324704</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.038661519080791</v>
+        <v>7.066258909737408</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.277582671274434</v>
+        <v>6.226733759738138</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.213509582904582</v>
+        <v>6.204823869652831</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.152121465515873</v>
+        <v>6.10446095750228</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.145288466903</v>
+        <v>6.099006642795644</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.105253856389709</v>
+        <v>6.084751256068212</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.016198049476781</v>
+        <v>5.945029217988502</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.947065034782753</v>
+        <v>5.936407314134373</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.932293907907495</v>
+        <v>5.897457552180347</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.929059413547289</v>
+        <v>5.88098201342357</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.911059285281236</v>
+        <v>5.841795464198868</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.868158453037287</v>
+        <v>5.83281931043271</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.705921508613797</v>
+        <v>5.609412203905391</v>
       </c>
     </row>
     <row r="17">
@@ -651,11 +651,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.675997227770725</v>
+        <v>5.5697970873867</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +664,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Alperen Şengün</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.665480431687072</v>
+        <v>5.561763869702077</v>
       </c>
     </row>
     <row r="19">
@@ -677,11 +677,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alperen Şengün</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.644675901579358</v>
+        <v>5.556181801246636</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.638968462851962</v>
+        <v>5.536852910148359</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.588727912316075</v>
+        <v>5.509173969960774</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.52939886845027</v>
+        <v>5.471544245645377</v>
       </c>
     </row>
     <row r="23">
@@ -729,11 +729,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.51426769722738</v>
+        <v>5.461231152516655</v>
       </c>
     </row>
     <row r="24">
@@ -742,11 +742,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.497412736864884</v>
+        <v>5.445788253390708</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.464288757950928</v>
+        <v>5.410993611161004</v>
       </c>
     </row>
     <row r="26">
@@ -768,11 +768,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.427950322099299</v>
+        <v>5.358215707087123</v>
       </c>
     </row>
     <row r="27">
@@ -781,11 +781,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.418727986554308</v>
+        <v>5.325624223413737</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.383070523749728</v>
+        <v>5.323316345302982</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.377926415573812</v>
+        <v>5.315496504080648</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.366673162447356</v>
+        <v>5.313746397034006</v>
       </c>
     </row>
     <row r="31">
@@ -833,11 +833,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.363129714687903</v>
+        <v>5.303312537229807</v>
       </c>
     </row>
     <row r="32">
@@ -846,11 +846,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.356478423995252</v>
+        <v>5.299955411204335</v>
       </c>
     </row>
     <row r="33">
@@ -859,11 +859,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.345210073499472</v>
+        <v>5.276636440504293</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.299189775095288</v>
+        <v>5.258865352400496</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Nikola Vučević</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.256911900346477</v>
+        <v>5.200030491004694</v>
       </c>
     </row>
     <row r="36">
@@ -898,11 +898,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.223035006496559</v>
+        <v>5.17918938480578</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +911,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.215494726560712</v>
+        <v>5.15130608932327</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.195841705088967</v>
+        <v>5.108920425956321</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.19311463893295</v>
+        <v>5.09835689804296</v>
       </c>
     </row>
     <row r="40">
@@ -950,11 +950,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.183055836446644</v>
+        <v>5.094102568600226</v>
       </c>
     </row>
     <row r="41">
@@ -963,11 +963,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.182919533863934</v>
+        <v>5.091829934883854</v>
       </c>
     </row>
     <row r="42">
@@ -976,11 +976,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.165286598035335</v>
+        <v>5.083229049032274</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.154578732653356</v>
+        <v>5.064284049942474</v>
       </c>
     </row>
     <row r="44">
@@ -1002,11 +1002,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.12511652799199</v>
+        <v>5.05933339053493</v>
       </c>
     </row>
     <row r="45">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.09349571105488</v>
+        <v>5.049234632624673</v>
       </c>
     </row>
     <row r="46">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.080268551207887</v>
+        <v>5.01522479660241</v>
       </c>
     </row>
     <row r="47">
@@ -1041,11 +1041,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5.066568931278263</v>
+        <v>5.012261193463114</v>
       </c>
     </row>
     <row r="48">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.05862855116105</v>
+        <v>5.012135771284019</v>
       </c>
     </row>
     <row r="49">
@@ -1067,11 +1067,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5.03016515554476</v>
+        <v>4.971046395765176</v>
       </c>
     </row>
     <row r="50">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.016034942412048</v>
+        <v>4.967430812115276</v>
       </c>
     </row>
     <row r="51">
@@ -1093,11 +1093,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5.005622157676792</v>
+        <v>4.960863122918634</v>
       </c>
     </row>
     <row r="52">
@@ -1106,11 +1106,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5.002309947107749</v>
+        <v>4.913843840536668</v>
       </c>
     </row>
     <row r="53">
@@ -1119,11 +1119,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.969748942098043</v>
+        <v>4.87240465034225</v>
       </c>
     </row>
     <row r="54">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.963748128333595</v>
+        <v>4.867443257207746</v>
       </c>
     </row>
     <row r="55">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.952218460459753</v>
+        <v>4.86193182564605</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.94977422668002</v>
+        <v>4.858627431135876</v>
       </c>
     </row>
     <row r="57">
@@ -1171,11 +1171,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.823635909549492</v>
+        <v>4.816973803396789</v>
       </c>
     </row>
     <row r="58">
@@ -1184,11 +1184,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.817991498784306</v>
+        <v>4.806035922158249</v>
       </c>
     </row>
     <row r="59">
@@ -1197,11 +1197,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4.811272016998852</v>
+        <v>4.770960131025662</v>
       </c>
     </row>
     <row r="60">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.799742238209911</v>
+        <v>4.730677515679877</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4.770815936404641</v>
+        <v>4.729792491589526</v>
       </c>
     </row>
     <row r="62">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.743749978639404</v>
+        <v>4.714842269329242</v>
       </c>
     </row>
     <row r="63">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.731915476689126</v>
+        <v>4.645534160527103</v>
       </c>
     </row>
     <row r="64">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.731661766700415</v>
+        <v>4.632629860094805</v>
       </c>
     </row>
     <row r="65">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.721677632448128</v>
+        <v>4.6264313440794</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.720728244161075</v>
+        <v>4.623820063771725</v>
       </c>
     </row>
     <row r="67">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kristaps Porziņģis</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.694051486230888</v>
+        <v>4.61517132999183</v>
       </c>
     </row>
     <row r="68">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.690204055919766</v>
+        <v>4.60917410607191</v>
       </c>
     </row>
     <row r="69">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Kristaps Porziņģis</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.676722319754594</v>
+        <v>4.607695829021607</v>
       </c>
     </row>
     <row r="70">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.665100872623594</v>
+        <v>4.596727082864914</v>
       </c>
     </row>
     <row r="71">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.634009781313155</v>
+        <v>4.55390762940704</v>
       </c>
     </row>
     <row r="72">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.58148976613224</v>
+        <v>4.552249038686277</v>
       </c>
     </row>
     <row r="73">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.579154367885784</v>
+        <v>4.540460224714217</v>
       </c>
     </row>
     <row r="74">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.577097537633772</v>
+        <v>4.531113583450067</v>
       </c>
     </row>
     <row r="75">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.575915798536666</v>
+        <v>4.527130373435083</v>
       </c>
     </row>
     <row r="76">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.575607332283443</v>
+        <v>4.471276824206665</v>
       </c>
     </row>
     <row r="77">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.571637325936364</v>
+        <v>4.459722077548461</v>
       </c>
     </row>
     <row r="78">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.564816164585305</v>
+        <v>4.456365342843261</v>
       </c>
     </row>
     <row r="79">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.563605567718455</v>
+        <v>4.442741239457937</v>
       </c>
     </row>
     <row r="80">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.554882179184533</v>
+        <v>4.439780337855359</v>
       </c>
     </row>
     <row r="81">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.554133285399189</v>
+        <v>4.434271691747825</v>
       </c>
     </row>
     <row r="82">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.547006673999268</v>
+        <v>4.432892376513438</v>
       </c>
     </row>
     <row r="83">
@@ -1509,11 +1509,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.535564457823314</v>
+        <v>4.4323815053128</v>
       </c>
     </row>
     <row r="84">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.473477044926549</v>
+        <v>4.42463618455547</v>
       </c>
     </row>
     <row r="85">
@@ -1535,11 +1535,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.466029886683919</v>
+        <v>4.423437306686493</v>
       </c>
     </row>
     <row r="86">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.455309790407297</v>
+        <v>4.388263123583892</v>
       </c>
     </row>
     <row r="87">
@@ -1561,11 +1561,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.437166196594823</v>
+        <v>4.348752816193423</v>
       </c>
     </row>
     <row r="88">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.435547976405354</v>
+        <v>4.34117337451873</v>
       </c>
     </row>
     <row r="89">
@@ -1587,11 +1587,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.403935705125008</v>
+        <v>4.330418873116411</v>
       </c>
     </row>
     <row r="90">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.395421367438866</v>
+        <v>4.310249643538954</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.338131743066543</v>
+        <v>4.302902872001569</v>
       </c>
     </row>
     <row r="92">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.308117482024397</v>
+        <v>4.297909702610007</v>
       </c>
     </row>
     <row r="93">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.293929774224992</v>
+        <v>4.255678768860363</v>
       </c>
     </row>
     <row r="94">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.276365941049304</v>
+        <v>4.230669870156446</v>
       </c>
     </row>
     <row r="95">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.271004706719353</v>
+        <v>4.186844909164875</v>
       </c>
     </row>
     <row r="96">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4.253886250794821</v>
+        <v>4.14461303652819</v>
       </c>
     </row>
     <row r="97">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.246863525260151</v>
+        <v>4.137415244805569</v>
       </c>
     </row>
     <row r="98">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4.220209464436964</v>
+        <v>4.135870086867562</v>
       </c>
     </row>
     <row r="99">
@@ -1717,11 +1717,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.216257622578703</v>
+        <v>4.131958089759267</v>
       </c>
     </row>
     <row r="100">
@@ -1730,11 +1730,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4.212155601170174</v>
+        <v>4.1299674602647</v>
       </c>
     </row>
     <row r="101">
@@ -1743,11 +1743,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.212087877409547</v>
+        <v>4.125922026126169</v>
       </c>
     </row>
     <row r="102">
@@ -1756,11 +1756,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.209069371159734</v>
+        <v>4.108782452102472</v>
       </c>
     </row>
     <row r="103">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.203382730348578</v>
+        <v>4.1057831147456</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.201892079032277</v>
+        <v>4.103380890503336</v>
       </c>
     </row>
     <row r="105">
@@ -1795,11 +1795,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Jonas Valančiūnas</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.18633805097878</v>
+        <v>4.101995443602956</v>
       </c>
     </row>
     <row r="106">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4.185798217737918</v>
+        <v>4.093808059089243</v>
       </c>
     </row>
     <row r="107">
@@ -1821,11 +1821,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4.183799382060221</v>
+        <v>4.091838350799665</v>
       </c>
     </row>
     <row r="108">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Bennedict Mathurin</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.181548326014132</v>
+        <v>4.085836387396657</v>
       </c>
     </row>
     <row r="109">
@@ -1847,11 +1847,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.155340869194609</v>
+        <v>4.084460794896161</v>
       </c>
     </row>
     <row r="110">
@@ -1860,11 +1860,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4.14667826762033</v>
+        <v>4.07444403212414</v>
       </c>
     </row>
     <row r="111">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4.13263586173859</v>
+        <v>4.059697152774321</v>
       </c>
     </row>
     <row r="112">
@@ -1886,11 +1886,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.123864332998876</v>
+        <v>4.051361439331755</v>
       </c>
     </row>
     <row r="113">
@@ -1899,11 +1899,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.115728369941064</v>
+        <v>4.046255829526677</v>
       </c>
     </row>
     <row r="114">
@@ -1912,11 +1912,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4.112633151035131</v>
+        <v>4.039878572279631</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.086461670587481</v>
+        <v>4.03585934369851</v>
       </c>
     </row>
     <row r="116">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4.081818975780686</v>
+        <v>4.023552097180238</v>
       </c>
     </row>
     <row r="117">
@@ -1951,11 +1951,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4.081313438051219</v>
+        <v>4.017957533907033</v>
       </c>
     </row>
     <row r="118">
@@ -1964,11 +1964,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4.079116222963319</v>
+        <v>4.010931449495647</v>
       </c>
     </row>
     <row r="119">
@@ -1977,11 +1977,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4.075177730510708</v>
+        <v>3.994532612065849</v>
       </c>
     </row>
     <row r="120">
@@ -1990,11 +1990,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.071836579611071</v>
+        <v>3.978111702064814</v>
       </c>
     </row>
     <row r="121">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4.059087799662099</v>
+        <v>3.970910016410026</v>
       </c>
     </row>
     <row r="122">
@@ -2016,11 +2016,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4.059034540102979</v>
+        <v>3.960626513842572</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4.040336423786515</v>
+        <v>3.949431220704239</v>
       </c>
     </row>
     <row r="124">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4.0289771626736</v>
+        <v>3.940039342659166</v>
       </c>
     </row>
     <row r="125">
@@ -2055,11 +2055,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4.012114061215669</v>
+        <v>3.939598398944196</v>
       </c>
     </row>
     <row r="126">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4.006371219277068</v>
+        <v>3.916257572413215</v>
       </c>
     </row>
     <row r="127">
@@ -2081,11 +2081,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3.98625504097912</v>
+        <v>3.910350552342253</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.978432557214455</v>
+        <v>3.900803227986251</v>
       </c>
     </row>
     <row r="129">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3.946097616502908</v>
+        <v>3.882648010869723</v>
       </c>
     </row>
     <row r="130">
@@ -2120,11 +2120,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3.944151606464169</v>
+        <v>3.876204527417833</v>
       </c>
     </row>
     <row r="131">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Alex Sarr</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3.922857185541223</v>
+        <v>3.854914562384136</v>
       </c>
     </row>
     <row r="132">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3.922551837627857</v>
+        <v>3.833512018086551</v>
       </c>
     </row>
     <row r="133">
@@ -2159,11 +2159,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.920312786036195</v>
+        <v>3.81498193125771</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3.91706038587744</v>
+        <v>3.798684893374111</v>
       </c>
     </row>
     <row r="135">
@@ -2185,11 +2185,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3.883398404373284</v>
+        <v>3.793908565019271</v>
       </c>
     </row>
     <row r="136">
@@ -2198,11 +2198,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3.882123462197438</v>
+        <v>3.788898613630071</v>
       </c>
     </row>
     <row r="137">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3.848372046993727</v>
+        <v>3.785215110298672</v>
       </c>
     </row>
     <row r="138">
@@ -2224,11 +2224,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3.83940265523801</v>
+        <v>3.774886795368291</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.828712812971529</v>
+        <v>3.765912604685406</v>
       </c>
     </row>
     <row r="140">
@@ -2250,11 +2250,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.824367247925</v>
+        <v>3.758254829609448</v>
       </c>
     </row>
     <row r="141">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.823107525653065</v>
+        <v>3.755263415974719</v>
       </c>
     </row>
     <row r="142">
@@ -2276,11 +2276,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.816385039422899</v>
+        <v>3.749772131135684</v>
       </c>
     </row>
     <row r="143">
@@ -2289,11 +2289,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.815831117515235</v>
+        <v>3.745220699862752</v>
       </c>
     </row>
     <row r="144">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.814882745589021</v>
+        <v>3.744944270895696</v>
       </c>
     </row>
     <row r="145">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Aaron Wiggins</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.814643193646927</v>
+        <v>3.743010514888941</v>
       </c>
     </row>
     <row r="146">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Aaron Wiggins</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3.814594221167358</v>
+        <v>3.736957256656479</v>
       </c>
     </row>
     <row r="147">
@@ -2341,11 +2341,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3.805218154055436</v>
+        <v>3.736023424011213</v>
       </c>
     </row>
     <row r="148">
@@ -2354,11 +2354,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3.802456054744922</v>
+        <v>3.732564642889048</v>
       </c>
     </row>
     <row r="149">
@@ -2367,11 +2367,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.800512653329142</v>
+        <v>3.717248583205456</v>
       </c>
     </row>
     <row r="150">
@@ -2380,11 +2380,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.776622579257277</v>
+        <v>3.716344128954361</v>
       </c>
     </row>
     <row r="151">
@@ -2393,11 +2393,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3.773116778929395</v>
+        <v>3.713135544421396</v>
       </c>
     </row>
     <row r="152">
@@ -2406,11 +2406,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3.746930713308312</v>
+        <v>3.711933402348526</v>
       </c>
     </row>
     <row r="153">
@@ -2419,11 +2419,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bilal Coulibaly</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.739403647968498</v>
+        <v>3.702324965625748</v>
       </c>
     </row>
     <row r="154">
@@ -2432,11 +2432,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3.734851177671339</v>
+        <v>3.698742203689572</v>
       </c>
     </row>
     <row r="155">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3.714538343682813</v>
+        <v>3.695560876097448</v>
       </c>
     </row>
     <row r="156">
@@ -2458,11 +2458,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3.71134876408596</v>
+        <v>3.69132905204</v>
       </c>
     </row>
     <row r="157">
@@ -2471,11 +2471,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3.710992933451756</v>
+        <v>3.680872321090134</v>
       </c>
     </row>
     <row r="158">
@@ -2484,11 +2484,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nick Richards</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3.698645934698034</v>
+        <v>3.643192086225145</v>
       </c>
     </row>
     <row r="159">
@@ -2497,11 +2497,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3.698075413134374</v>
+        <v>3.643039289684205</v>
       </c>
     </row>
     <row r="160">
@@ -2510,11 +2510,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Bilal Coulibaly</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3.697658590756852</v>
+        <v>3.635046963436164</v>
       </c>
     </row>
     <row r="161">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3.688891876019951</v>
+        <v>3.626611474947231</v>
       </c>
     </row>
     <row r="162">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.684325155740785</v>
+        <v>3.615262750872072</v>
       </c>
     </row>
     <row r="163">
@@ -2549,11 +2549,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.677225120580978</v>
+        <v>3.594202619377161</v>
       </c>
     </row>
     <row r="164">
@@ -2562,11 +2562,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Moritz Wagner</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.671112301025914</v>
+        <v>3.578853662838626</v>
       </c>
     </row>
     <row r="165">
@@ -2575,11 +2575,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.663423609649952</v>
+        <v>3.574351776924942</v>
       </c>
     </row>
     <row r="166">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3.656706843024355</v>
+        <v>3.569042160710481</v>
       </c>
     </row>
     <row r="167">
@@ -2601,11 +2601,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.628422932689172</v>
+        <v>3.565196894169865</v>
       </c>
     </row>
     <row r="168">
@@ -2614,11 +2614,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.627134032791299</v>
+        <v>3.558850113800653</v>
       </c>
     </row>
     <row r="169">
@@ -2627,11 +2627,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3.622951845083168</v>
+        <v>3.557800370042137</v>
       </c>
     </row>
     <row r="170">
@@ -2640,11 +2640,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3.620648808705437</v>
+        <v>3.526186910089445</v>
       </c>
     </row>
     <row r="171">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3.605390566745594</v>
+        <v>3.521363584797983</v>
       </c>
     </row>
     <row r="172">
@@ -2666,11 +2666,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.584520034471388</v>
+        <v>3.515498630899117</v>
       </c>
     </row>
     <row r="173">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.58306587604663</v>
+        <v>3.509861748276648</v>
       </c>
     </row>
     <row r="174">
@@ -2692,11 +2692,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Bub Carrington</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.581262776489377</v>
+        <v>3.50887577975047</v>
       </c>
     </row>
     <row r="175">
@@ -2705,11 +2705,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3.578155637490442</v>
+        <v>3.494190181873057</v>
       </c>
     </row>
     <row r="176">
@@ -2718,11 +2718,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.544836187689371</v>
+        <v>3.487898905721234</v>
       </c>
     </row>
     <row r="177">
@@ -2731,11 +2731,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.53865105539902</v>
+        <v>3.484474104951902</v>
       </c>
     </row>
     <row r="178">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3.535873780705277</v>
+        <v>3.47757163528266</v>
       </c>
     </row>
     <row r="179">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.535524617243389</v>
+        <v>3.474900959890457</v>
       </c>
     </row>
     <row r="180">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3.529435674172553</v>
+        <v>3.472741774768599</v>
       </c>
     </row>
     <row r="181">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Anthony Black</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3.523130943671676</v>
+        <v>3.472430455971336</v>
       </c>
     </row>
     <row r="182">
@@ -2796,11 +2796,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3.518545491640452</v>
+        <v>3.470989478832657</v>
       </c>
     </row>
     <row r="183">
@@ -2809,11 +2809,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3.517424134739317</v>
+        <v>3.468281650171324</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3.510239808059426</v>
+        <v>3.459849209381117</v>
       </c>
     </row>
     <row r="185">
@@ -2835,11 +2835,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Keon Johnson</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3.508470932976182</v>
+        <v>3.458531246599993</v>
       </c>
     </row>
     <row r="186">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3.503478098133131</v>
+        <v>3.448965725893137</v>
       </c>
     </row>
     <row r="187">
@@ -2861,11 +2861,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3.503095749243601</v>
+        <v>3.440129993912503</v>
       </c>
     </row>
     <row r="188">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Keon Johnson</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3.498284904967437</v>
+        <v>3.429989013189918</v>
       </c>
     </row>
     <row r="189">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3.488156779167707</v>
+        <v>3.429308339132083</v>
       </c>
     </row>
     <row r="190">
@@ -2900,11 +2900,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3.47965120073262</v>
+        <v>3.428532956881989</v>
       </c>
     </row>
     <row r="191">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3.458332081612942</v>
+        <v>3.428252355131205</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.455611383703575</v>
+        <v>3.420542812784719</v>
       </c>
     </row>
     <row r="193">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Donovan Clingan</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.453178894713893</v>
+        <v>3.384719678810569</v>
       </c>
     </row>
     <row r="194">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.450123406524019</v>
+        <v>3.384059980242209</v>
       </c>
     </row>
     <row r="195">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3.447672895939287</v>
+        <v>3.37675767168338</v>
       </c>
     </row>
     <row r="196">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Jaylen Wells</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.444608015684195</v>
+        <v>3.35901400061578</v>
       </c>
     </row>
     <row r="197">
@@ -2991,11 +2991,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3.443307340819622</v>
+        <v>3.354325391508088</v>
       </c>
     </row>
     <row r="198">
@@ -3004,11 +3004,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nikola Jović</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3.438785831788152</v>
+        <v>3.349285053406597</v>
       </c>
     </row>
     <row r="199">
@@ -3017,11 +3017,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3.435939437537119</v>
+        <v>3.348727609428823</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3.423316505995354</v>
+        <v>3.335184081359617</v>
       </c>
     </row>
     <row r="201">
@@ -3043,11 +3043,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3.42097917699432</v>
+        <v>3.332278118691223</v>
       </c>
     </row>
     <row r="202">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.420374376025755</v>
+        <v>3.328128934871178</v>
       </c>
     </row>
     <row r="203">
@@ -3069,11 +3069,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Nikola Jović</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.419308719032077</v>
+        <v>3.327468514608196</v>
       </c>
     </row>
     <row r="204">
@@ -3082,11 +3082,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.416894667979149</v>
+        <v>3.322418425452798</v>
       </c>
     </row>
     <row r="205">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.393692145503823</v>
+        <v>3.321312243739647</v>
       </c>
     </row>
     <row r="206">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3.393038416869955</v>
+        <v>3.32098363010981</v>
       </c>
     </row>
     <row r="207">
@@ -3121,11 +3121,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3.380291210256899</v>
+        <v>3.313366293207579</v>
       </c>
     </row>
     <row r="208">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Max Christie</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3.363112931753653</v>
+        <v>3.308751115820878</v>
       </c>
     </row>
     <row r="209">
@@ -3147,11 +3147,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3.351210174040593</v>
+        <v>3.308746624922332</v>
       </c>
     </row>
     <row r="210">
@@ -3160,11 +3160,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>N'Faly Dante</t>
+          <t>Max Christie</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.35097881355901</v>
+        <v>3.30827431501334</v>
       </c>
     </row>
     <row r="211">
@@ -3173,11 +3173,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.350524784924795</v>
+        <v>3.303663685114527</v>
       </c>
     </row>
     <row r="212">
@@ -3186,11 +3186,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.346699833942768</v>
+        <v>3.29334957104065</v>
       </c>
     </row>
     <row r="213">
@@ -3199,11 +3199,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3.346554136313041</v>
+        <v>3.290495843396237</v>
       </c>
     </row>
     <row r="214">
@@ -3212,11 +3212,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3.342508110264882</v>
+        <v>3.281415713022119</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3.340456509411774</v>
+        <v>3.278248551957295</v>
       </c>
     </row>
     <row r="216">
@@ -3238,11 +3238,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.33015630485278</v>
+        <v>3.275180880296276</v>
       </c>
     </row>
     <row r="217">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3.319637032239598</v>
+        <v>3.266944780686255</v>
       </c>
     </row>
     <row r="218">
@@ -3264,11 +3264,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3.318664020128226</v>
+        <v>3.265637231306286</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.317341014791151</v>
+        <v>3.263904045899209</v>
       </c>
     </row>
     <row r="220">
@@ -3290,11 +3290,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3.310623216668355</v>
+        <v>3.252737026912133</v>
       </c>
     </row>
     <row r="221">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Bogdan Bogdanović</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3.310280886174086</v>
+        <v>3.248406676244871</v>
       </c>
     </row>
     <row r="222">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.309968484522065</v>
+        <v>3.242999837143727</v>
       </c>
     </row>
     <row r="223">
@@ -3329,11 +3329,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3.302511201188389</v>
+        <v>3.235180258891047</v>
       </c>
     </row>
     <row r="224">
@@ -3342,11 +3342,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.298897496314765</v>
+        <v>3.234404044589214</v>
       </c>
     </row>
     <row r="225">
@@ -3355,11 +3355,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.289680949293793</v>
+        <v>3.228687062717963</v>
       </c>
     </row>
     <row r="226">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3.28582991989176</v>
+        <v>3.226923128827453</v>
       </c>
     </row>
     <row r="227">
@@ -3381,11 +3381,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3.274300678682987</v>
+        <v>3.221191799261164</v>
       </c>
     </row>
     <row r="228">
@@ -3394,11 +3394,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3.272084086800786</v>
+        <v>3.207978110876812</v>
       </c>
     </row>
     <row r="229">
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3.271351980334597</v>
+        <v>3.193951715439973</v>
       </c>
     </row>
     <row r="230">
@@ -3420,11 +3420,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3.267917940060478</v>
+        <v>3.180211126025376</v>
       </c>
     </row>
     <row r="231">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Jake LaRavia</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3.267754676530464</v>
+        <v>3.177860619323173</v>
       </c>
     </row>
     <row r="232">
@@ -3446,11 +3446,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3.253317662694473</v>
+        <v>3.170687279893636</v>
       </c>
     </row>
     <row r="233">
@@ -3459,11 +3459,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3.250822351142594</v>
+        <v>3.170471840449015</v>
       </c>
     </row>
     <row r="234">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3.247788153809575</v>
+        <v>3.169811142095535</v>
       </c>
     </row>
     <row r="235">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3.237154927479419</v>
+        <v>3.167904285836674</v>
       </c>
     </row>
     <row r="236">
@@ -3498,11 +3498,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Moussa Diabaté</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3.233931492440458</v>
+        <v>3.166520131537699</v>
       </c>
     </row>
     <row r="237">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Moussa Diabaté</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3.227673300498459</v>
+        <v>3.148085766794893</v>
       </c>
     </row>
     <row r="238">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3.222400928167715</v>
+        <v>3.146140720893574</v>
       </c>
     </row>
     <row r="239">
@@ -3537,11 +3537,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.220243822896165</v>
+        <v>3.141176402741121</v>
       </c>
     </row>
     <row r="240">
@@ -3550,11 +3550,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.219701476659531</v>
+        <v>3.13577491666551</v>
       </c>
     </row>
     <row r="241">
@@ -3563,11 +3563,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3.215067409471054</v>
+        <v>3.134765540272719</v>
       </c>
     </row>
     <row r="242">
@@ -3576,11 +3576,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3.209837484940153</v>
+        <v>3.1298262250539</v>
       </c>
     </row>
     <row r="243">
@@ -3589,11 +3589,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3.202597083149036</v>
+        <v>3.1190477713508</v>
       </c>
     </row>
     <row r="244">
@@ -3602,11 +3602,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3.195619066518547</v>
+        <v>3.11758083470218</v>
       </c>
     </row>
     <row r="245">
@@ -3615,11 +3615,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3.190982712348261</v>
+        <v>3.112457845902277</v>
       </c>
     </row>
     <row r="246">
@@ -3628,11 +3628,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3.186955188336482</v>
+        <v>3.105807025247204</v>
       </c>
     </row>
     <row r="247">
@@ -3641,11 +3641,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3.184520729138938</v>
+        <v>3.102446323739665</v>
       </c>
     </row>
     <row r="248">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Drew Timme</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3.182521120111392</v>
+        <v>3.099772517532061</v>
       </c>
     </row>
     <row r="249">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3.14836536580823</v>
+        <v>3.096034876013961</v>
       </c>
     </row>
     <row r="250">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Drew Timme</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3.146412843082232</v>
+        <v>3.093220082617182</v>
       </c>
     </row>
     <row r="251">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3.135329914275957</v>
+        <v>3.070291560819591</v>
       </c>
     </row>
     <row r="252">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3.113277834191878</v>
+        <v>3.060375791853624</v>
       </c>
     </row>
     <row r="253">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3.11030439691858</v>
+        <v>3.047781756767835</v>
       </c>
     </row>
     <row r="254">
@@ -3732,11 +3732,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.102932872594473</v>
+        <v>3.029125141255731</v>
       </c>
     </row>
     <row r="255">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3.102365799180667</v>
+        <v>3.026117171150892</v>
       </c>
     </row>
     <row r="256">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.097492010186925</v>
+        <v>3.015915982898812</v>
       </c>
     </row>
     <row r="257">
@@ -3771,11 +3771,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.088936273078074</v>
+        <v>3.009707362269144</v>
       </c>
     </row>
     <row r="258">
@@ -3784,11 +3784,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3.088698182460901</v>
+        <v>2.998992870225756</v>
       </c>
     </row>
     <row r="259">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3.08766160864498</v>
+        <v>2.998615493277399</v>
       </c>
     </row>
     <row r="260">
@@ -3810,11 +3810,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3.083690098903014</v>
+        <v>2.998589269174395</v>
       </c>
     </row>
     <row r="261">
@@ -3823,11 +3823,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3.074827648127564</v>
+        <v>2.993340042188315</v>
       </c>
     </row>
     <row r="262">
@@ -3836,11 +3836,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Justin Edwards</t>
+          <t>Karlo Matković</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3.072050158270033</v>
+        <v>2.992013717939357</v>
       </c>
     </row>
     <row r="263">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3.06326672812416</v>
+        <v>2.986852228692497</v>
       </c>
     </row>
     <row r="264">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3.057819889153207</v>
+        <v>2.983856103097142</v>
       </c>
     </row>
     <row r="265">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3.051318916476639</v>
+        <v>2.983592441800693</v>
       </c>
     </row>
     <row r="266">
@@ -3888,11 +3888,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3.046810922747298</v>
+        <v>2.983440535153997</v>
       </c>
     </row>
     <row r="267">
@@ -3901,11 +3901,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3.043491138263001</v>
+        <v>2.982636783835175</v>
       </c>
     </row>
     <row r="268">
@@ -3914,11 +3914,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Justin Edwards</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3.041408918341174</v>
+        <v>2.978583115800089</v>
       </c>
     </row>
     <row r="269">
@@ -3927,11 +3927,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3.039943053372183</v>
+        <v>2.976647715635943</v>
       </c>
     </row>
     <row r="270">
@@ -3940,11 +3940,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3.034274917822565</v>
+        <v>2.976099301288659</v>
       </c>
     </row>
     <row r="271">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3.031002373592222</v>
+        <v>2.971224943596081</v>
       </c>
     </row>
     <row r="272">
@@ -3966,11 +3966,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3.0235999323337</v>
+        <v>2.967058423840952</v>
       </c>
     </row>
     <row r="273">
@@ -3979,11 +3979,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ron Holland</t>
+          <t>Vit Krejci</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3.014579162375742</v>
+        <v>2.948686461074723</v>
       </c>
     </row>
     <row r="274">
@@ -3992,11 +3992,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Johnny Juzang</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3.010274356469687</v>
+        <v>2.947902123540622</v>
       </c>
     </row>
     <row r="275">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3.007659687647109</v>
+        <v>2.942507300569001</v>
       </c>
     </row>
     <row r="276">
@@ -4018,11 +4018,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Lonzo Ball</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3.001549726411017</v>
+        <v>2.938951338676022</v>
       </c>
     </row>
     <row r="277">
@@ -4031,11 +4031,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2.999355466975213</v>
+        <v>2.932583531849816</v>
       </c>
     </row>
     <row r="278">
@@ -4044,11 +4044,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Ron Holland</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2.99245823263337</v>
+        <v>2.928051298735018</v>
       </c>
     </row>
     <row r="279">
@@ -4057,11 +4057,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Vit Krejci</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2.992413908712932</v>
+        <v>2.925344377262467</v>
       </c>
     </row>
     <row r="280">
@@ -4070,11 +4070,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Adem Bona</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2.989023241486932</v>
+        <v>2.919113500795372</v>
       </c>
     </row>
     <row r="281">
@@ -4083,11 +4083,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2.988819804502449</v>
+        <v>2.915987528038882</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2.982018241096743</v>
+        <v>2.914742153202796</v>
       </c>
     </row>
     <row r="283">
@@ -4109,11 +4109,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ricky Council IV</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2.979706921588464</v>
+        <v>2.911917808205196</v>
       </c>
     </row>
     <row r="284">
@@ -4122,11 +4122,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Lonzo Ball</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.958701797920456</v>
+        <v>2.909774982735684</v>
       </c>
     </row>
     <row r="285">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Karlo Matković</t>
+          <t>Brandon Williams</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2.95615187347259</v>
+        <v>2.908313630283211</v>
       </c>
     </row>
     <row r="286">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Brandon Williams</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2.95311968251914</v>
+        <v>2.907665391867977</v>
       </c>
     </row>
     <row r="287">
@@ -4161,11 +4161,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.947991411965152</v>
+        <v>2.903898235783315</v>
       </c>
     </row>
     <row r="288">
@@ -4174,11 +4174,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2.946446237388846</v>
+        <v>2.903044877213458</v>
       </c>
     </row>
     <row r="289">
@@ -4187,11 +4187,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Tosan Evbuomwan</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2.944852267098171</v>
+        <v>2.897161716313581</v>
       </c>
     </row>
     <row r="290">
@@ -4200,11 +4200,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2.93645336359292</v>
+        <v>2.89300341366746</v>
       </c>
     </row>
     <row r="291">
@@ -4213,11 +4213,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Ricky Council IV</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2.935411929482656</v>
+        <v>2.890440958929663</v>
       </c>
     </row>
     <row r="292">
@@ -4226,11 +4226,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2.933926201621915</v>
+        <v>2.882266418334431</v>
       </c>
     </row>
     <row r="293">
@@ -4239,11 +4239,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2.927030784179477</v>
+        <v>2.881851174240412</v>
       </c>
     </row>
     <row r="294">
@@ -4252,11 +4252,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Alondes Williams</t>
+          <t>A.J. Green</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2.926550772517058</v>
+        <v>2.881356264041293</v>
       </c>
     </row>
     <row r="295">
@@ -4265,11 +4265,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2.923960374138356</v>
+        <v>2.876799004144166</v>
       </c>
     </row>
     <row r="296">
@@ -4278,11 +4278,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A.J. Green</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2.923500167296962</v>
+        <v>2.872785334140452</v>
       </c>
     </row>
     <row r="297">
@@ -4291,11 +4291,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2.921171998022604</v>
+        <v>2.854988146402403</v>
       </c>
     </row>
     <row r="298">
@@ -4304,11 +4304,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.912782560775758</v>
+        <v>2.852218306014406</v>
       </c>
     </row>
     <row r="299">
@@ -4317,11 +4317,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2.900777559465847</v>
+        <v>2.848113907113861</v>
       </c>
     </row>
     <row r="300">
@@ -4330,11 +4330,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2.900475079889296</v>
+        <v>2.847339105767168</v>
       </c>
     </row>
     <row r="301">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2.892216995398817</v>
+        <v>2.840470352328718</v>
       </c>
     </row>
     <row r="302">
@@ -4356,11 +4356,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2.890218916420785</v>
+        <v>2.832441486377056</v>
       </c>
     </row>
     <row r="303">
@@ -4369,11 +4369,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2.883628732729164</v>
+        <v>2.818737769865863</v>
       </c>
     </row>
     <row r="304">
@@ -4382,11 +4382,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2.876395830179796</v>
+        <v>2.813682694501487</v>
       </c>
     </row>
     <row r="305">
@@ -4395,11 +4395,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2.868911099582337</v>
+        <v>2.810350061946</v>
       </c>
     </row>
     <row r="306">
@@ -4408,11 +4408,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ryan Dunn</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2.866420661136316</v>
+        <v>2.802820514226219</v>
       </c>
     </row>
     <row r="307">
@@ -4421,11 +4421,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2.859648633772993</v>
+        <v>2.802061856110534</v>
       </c>
     </row>
     <row r="308">
@@ -4434,11 +4434,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2.847005486648886</v>
+        <v>2.801474802902163</v>
       </c>
     </row>
     <row r="309">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2.835894155105762</v>
+        <v>2.796647839440429</v>
       </c>
     </row>
     <row r="310">
@@ -4460,11 +4460,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Dean Wade</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2.819813152175161</v>
+        <v>2.771750082400513</v>
       </c>
     </row>
     <row r="311">
@@ -4473,11 +4473,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Adem Bona</t>
+          <t>N'Faly Dante</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2.813738325893689</v>
+        <v>2.769532298541338</v>
       </c>
     </row>
     <row r="312">
@@ -4486,11 +4486,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Oscar Tshiebwe</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2.805866684460183</v>
+        <v>2.769323814539365</v>
       </c>
     </row>
     <row r="313">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2.80116735492822</v>
+        <v>2.761233314616004</v>
       </c>
     </row>
     <row r="314">
@@ -4512,11 +4512,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2.788691341794518</v>
+        <v>2.749850560515458</v>
       </c>
     </row>
     <row r="315">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Alondes Williams</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2.78853336672204</v>
+        <v>2.728311007353036</v>
       </c>
     </row>
     <row r="316">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Dean Wade</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2.784743109795677</v>
+        <v>2.726506504917219</v>
       </c>
     </row>
     <row r="317">
@@ -4551,11 +4551,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2.78261150809971</v>
+        <v>2.713736864366505</v>
       </c>
     </row>
     <row r="318">
@@ -4564,11 +4564,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2.765825801383536</v>
+        <v>2.711220227387481</v>
       </c>
     </row>
     <row r="319">
@@ -4577,11 +4577,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2.76272990513861</v>
+        <v>2.70728845589044</v>
       </c>
     </row>
     <row r="320">
@@ -4590,11 +4590,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tosan Evbuomwan</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2.760271336945524</v>
+        <v>2.697301669587418</v>
       </c>
     </row>
     <row r="321">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2.755384021009879</v>
+        <v>2.696376867317304</v>
       </c>
     </row>
     <row r="322">
@@ -4616,11 +4616,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2.752512901249637</v>
+        <v>2.694368984986672</v>
       </c>
     </row>
     <row r="323">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2.732187670244193</v>
+        <v>2.694234893412173</v>
       </c>
     </row>
     <row r="324">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>KJ Simpson</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2.731637278311291</v>
+        <v>2.686303291228736</v>
       </c>
     </row>
     <row r="325">
@@ -4655,11 +4655,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chuma Okeke</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2.730470884033873</v>
+        <v>2.683457242816334</v>
       </c>
     </row>
     <row r="326">
@@ -4668,11 +4668,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2.719617851660519</v>
+        <v>2.679151979481865</v>
       </c>
     </row>
     <row r="327">
@@ -4681,11 +4681,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2.716738388141518</v>
+        <v>2.674110268519855</v>
       </c>
     </row>
     <row r="328">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2.698122693902217</v>
+        <v>2.665989242464231</v>
       </c>
     </row>
     <row r="329">
@@ -4707,11 +4707,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2.695452790912896</v>
+        <v>2.647494745094109</v>
       </c>
     </row>
     <row r="330">
@@ -4720,11 +4720,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Oscar Tshiebwe</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2.685996152652504</v>
+        <v>2.644913936198525</v>
       </c>
     </row>
     <row r="331">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Jeff Dowtin</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2.680612744861643</v>
+        <v>2.638515238101546</v>
       </c>
     </row>
     <row r="332">
@@ -4746,11 +4746,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2.677909328514136</v>
+        <v>2.63603905191498</v>
       </c>
     </row>
     <row r="333">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2.676892461959608</v>
+        <v>2.628722294293732</v>
       </c>
     </row>
     <row r="334">
@@ -4772,11 +4772,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Kai Jones</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2.67617474361877</v>
+        <v>2.628396196603174</v>
       </c>
     </row>
     <row r="335">
@@ -4785,11 +4785,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Tidjane Salaün</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2.672738811772971</v>
+        <v>2.624651209714399</v>
       </c>
     </row>
     <row r="336">
@@ -4798,11 +4798,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>A.J. Lawson</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2.672032925801581</v>
+        <v>2.62102064039315</v>
       </c>
     </row>
     <row r="337">
@@ -4811,11 +4811,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jeff Dowtin</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2.656365004470196</v>
+        <v>2.619637224779487</v>
       </c>
     </row>
     <row r="338">
@@ -4824,11 +4824,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Kai Jones</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2.646522168685838</v>
+        <v>2.616891485105188</v>
       </c>
     </row>
     <row r="339">
@@ -4837,11 +4837,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Keion Brooks Jr.</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2.646137278084815</v>
+        <v>2.612129686799737</v>
       </c>
     </row>
     <row r="340">
@@ -4850,11 +4850,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2.641148909204504</v>
+        <v>2.611368386825337</v>
       </c>
     </row>
     <row r="341">
@@ -4863,11 +4863,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>KJ Simpson</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2.638873356042912</v>
+        <v>2.606761242445382</v>
       </c>
     </row>
     <row r="342">
@@ -4876,11 +4876,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tidjane Salaün</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2.632712627031324</v>
+        <v>2.592274168592172</v>
       </c>
     </row>
     <row r="343">
@@ -4889,11 +4889,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2.627071066806288</v>
+        <v>2.573844528355567</v>
       </c>
     </row>
     <row r="344">
@@ -4902,11 +4902,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Dalen Terry</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2.61778290394201</v>
+        <v>2.564871507925004</v>
       </c>
     </row>
     <row r="345">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2.609529374065462</v>
+        <v>2.557060298370217</v>
       </c>
     </row>
     <row r="346">
@@ -4928,11 +4928,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Daeqwon Plowden</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2.604765334178017</v>
+        <v>2.552959383173469</v>
       </c>
     </row>
     <row r="347">
@@ -4941,11 +4941,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>KJ Martin</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2.599835116164432</v>
+        <v>2.549819556926237</v>
       </c>
     </row>
     <row r="348">
@@ -4954,11 +4954,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Oso Ighodaro</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2.596554779009623</v>
+        <v>2.548079637216189</v>
       </c>
     </row>
     <row r="349">
@@ -4967,11 +4967,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Moses Brown</t>
+          <t>Collin Gillespie</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2.594645062489966</v>
+        <v>2.542830165961727</v>
       </c>
     </row>
     <row r="350">
@@ -4980,11 +4980,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2.594444953191148</v>
+        <v>2.541497929249119</v>
       </c>
     </row>
     <row r="351">
@@ -4993,11 +4993,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2.59326382082361</v>
+        <v>2.538455668453441</v>
       </c>
     </row>
     <row r="352">
@@ -5006,11 +5006,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2.588682080671528</v>
+        <v>2.538197865268959</v>
       </c>
     </row>
     <row r="353">
@@ -5019,11 +5019,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ajay Mitchell</t>
+          <t>Jared Rhoden</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2.588044360658129</v>
+        <v>2.532056663266935</v>
       </c>
     </row>
     <row r="354">
@@ -5032,11 +5032,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Dalen Terry</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.581692839850605</v>
+        <v>2.53033677483678</v>
       </c>
     </row>
     <row r="355">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Oso Ighodaro</t>
+          <t>Ajay Mitchell</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2.567770221117524</v>
+        <v>2.501205838778533</v>
       </c>
     </row>
     <row r="356">
@@ -5058,11 +5058,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2.561208121452105</v>
+        <v>2.496539194356004</v>
       </c>
     </row>
     <row r="357">
@@ -5071,11 +5071,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Vasilije Micić</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.561076912654293</v>
+        <v>2.48853864886752</v>
       </c>
     </row>
     <row r="358">
@@ -5084,11 +5084,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Damion Baugh</t>
+          <t>KJ Martin</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.556160716176885</v>
+        <v>2.484524177767088</v>
       </c>
     </row>
     <row r="359">
@@ -5097,11 +5097,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Jordan Goodwin</t>
+          <t>Moses Brown</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.551927802152679</v>
+        <v>2.481844291124248</v>
       </c>
     </row>
     <row r="360">
@@ -5110,11 +5110,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>GG Jackson II</t>
+          <t>Chuma Okeke</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.540669898820451</v>
+        <v>2.480446913699514</v>
       </c>
     </row>
     <row r="361">
@@ -5123,11 +5123,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.535104616313247</v>
+        <v>2.477319829069247</v>
       </c>
     </row>
     <row r="362">
@@ -5136,11 +5136,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2.531513315104185</v>
+        <v>2.469492317496762</v>
       </c>
     </row>
     <row r="363">
@@ -5149,11 +5149,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Vasilije Micić</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2.529361033425733</v>
+        <v>2.4595793433035</v>
       </c>
     </row>
     <row r="364">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2.52429288871366</v>
+        <v>2.443110767801858</v>
       </c>
     </row>
     <row r="365">
@@ -5175,11 +5175,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Damion Baugh</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.509762927803396</v>
+        <v>2.436337945986495</v>
       </c>
     </row>
     <row r="366">
@@ -5188,11 +5188,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2.509174784776906</v>
+        <v>2.430171875984644</v>
       </c>
     </row>
     <row r="367">
@@ -5201,11 +5201,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2.508338907729326</v>
+        <v>2.429521891660579</v>
       </c>
     </row>
     <row r="368">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>Jordan Goodwin</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2.494872991867232</v>
+        <v>2.428484382331223</v>
       </c>
     </row>
     <row r="369">
@@ -5227,11 +5227,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Andre Jackson Jr.</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2.493982743355951</v>
+        <v>2.427908959323299</v>
       </c>
     </row>
     <row r="370">
@@ -5240,11 +5240,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Collin Gillespie</t>
+          <t>GG Jackson II</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2.486901006343638</v>
+        <v>2.424731744648787</v>
       </c>
     </row>
     <row r="371">
@@ -5253,11 +5253,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>A.J. Lawson</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2.478745430545397</v>
+        <v>2.411936754977663</v>
       </c>
     </row>
     <row r="372">
@@ -5266,11 +5266,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2.477935793360109</v>
+        <v>2.411381425057692</v>
       </c>
     </row>
     <row r="373">
@@ -5279,11 +5279,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2.465277828957916</v>
+        <v>2.395261589802198</v>
       </c>
     </row>
     <row r="374">
@@ -5292,11 +5292,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2.4613426911982</v>
+        <v>2.389538570090789</v>
       </c>
     </row>
     <row r="375">
@@ -5305,11 +5305,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2.447052380583365</v>
+        <v>2.387876270549047</v>
       </c>
     </row>
     <row r="376">
@@ -5318,11 +5318,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Antonio Reeves</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2.44548970780555</v>
+        <v>2.387497412280548</v>
       </c>
     </row>
     <row r="377">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Oshae Brissett</t>
+          <t>Marcus Bagley</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2.442645586281905</v>
+        <v>2.386563104280028</v>
       </c>
     </row>
     <row r="378">
@@ -5344,11 +5344,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2.419128134919837</v>
+        <v>2.376193725323502</v>
       </c>
     </row>
     <row r="379">
@@ -5357,11 +5357,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>AJ Johnson</t>
+          <t>Pelle Larsson</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2.406927233491266</v>
+        <v>2.363039646151845</v>
       </c>
     </row>
     <row r="380">
@@ -5370,11 +5370,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Oshae Brissett</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2.401182862229699</v>
+        <v>2.353309436364288</v>
       </c>
     </row>
     <row r="381">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2.388498795792124</v>
+        <v>2.351203885735582</v>
       </c>
     </row>
     <row r="382">
@@ -5396,11 +5396,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2.382396570719758</v>
+        <v>2.343815747781942</v>
       </c>
     </row>
     <row r="383">
@@ -5409,11 +5409,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>AJ Johnson</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.380060886339477</v>
+        <v>2.328182997393743</v>
       </c>
     </row>
     <row r="384">
@@ -5422,11 +5422,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2.377835875720619</v>
+        <v>2.32092429454698</v>
       </c>
     </row>
     <row r="385">
@@ -5435,11 +5435,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Duop Reath</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2.375936883772243</v>
+        <v>2.317440699069401</v>
       </c>
     </row>
     <row r="386">
@@ -5448,11 +5448,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Jared Rhoden</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.372514941493322</v>
+        <v>2.297411090885593</v>
       </c>
     </row>
     <row r="387">
@@ -5461,11 +5461,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Keion Brooks Jr.</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2.368994804161484</v>
+        <v>2.293497647228566</v>
       </c>
     </row>
     <row r="388">
@@ -5474,11 +5474,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.357217061969164</v>
+        <v>2.290845820179825</v>
       </c>
     </row>
     <row r="389">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2.354409357431014</v>
+        <v>2.287244940569353</v>
       </c>
     </row>
     <row r="390">
@@ -5500,11 +5500,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2.350474898539484</v>
+        <v>2.282529311494665</v>
       </c>
     </row>
     <row r="391">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2.347552774264462</v>
+        <v>2.279145968867895</v>
       </c>
     </row>
     <row r="392">
@@ -5526,11 +5526,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2.346389430694607</v>
+        <v>2.274730240965201</v>
       </c>
     </row>
     <row r="393">
@@ -5539,11 +5539,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2.3420615776092</v>
+        <v>2.272790005114728</v>
       </c>
     </row>
     <row r="394">
@@ -5552,11 +5552,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Duop Reath</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2.33953386957734</v>
+        <v>2.265708827656884</v>
       </c>
     </row>
     <row r="395">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2.338663141052891</v>
+        <v>2.261823582383789</v>
       </c>
     </row>
     <row r="396">
@@ -5578,11 +5578,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>David Roddy</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2.33270153404513</v>
+        <v>2.259396589956897</v>
       </c>
     </row>
     <row r="397">
@@ -5591,11 +5591,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Marcus Garrett</t>
+          <t>Colin Castleton</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2.329765380943374</v>
+        <v>2.257718982513908</v>
       </c>
     </row>
     <row r="398">
@@ -5604,11 +5604,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Marcus Garrett</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2.327228003899262</v>
+        <v>2.257391085582859</v>
       </c>
     </row>
     <row r="399">
@@ -5617,11 +5617,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Craig Porter Jr.</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2.321069634213864</v>
+        <v>2.251438403840142</v>
       </c>
     </row>
     <row r="400">
@@ -5630,11 +5630,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Keaton Wallace</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2.321024341955354</v>
+        <v>2.231903197293737</v>
       </c>
     </row>
     <row r="401">
@@ -5643,11 +5643,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2.302650412056302</v>
+        <v>2.23187177265638</v>
       </c>
     </row>
     <row r="402">
@@ -5656,11 +5656,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2.299248576841969</v>
+        <v>2.230690386397171</v>
       </c>
     </row>
     <row r="403">
@@ -5669,11 +5669,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2.292774264137912</v>
+        <v>2.228401677618374</v>
       </c>
     </row>
     <row r="404">
@@ -5682,11 +5682,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>David Roddy</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2.280939588715024</v>
+        <v>2.218020638265001</v>
       </c>
     </row>
     <row r="405">
@@ -5695,11 +5695,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Micah Potter</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2.276812713152209</v>
+        <v>2.217784230527072</v>
       </c>
     </row>
     <row r="406">
@@ -5708,11 +5708,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Alex Reese</t>
+          <t>Keaton Wallace</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2.276188661856491</v>
+        <v>2.214767484789509</v>
       </c>
     </row>
     <row r="407">
@@ -5721,11 +5721,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Jamal Cain</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2.2736756535135</v>
+        <v>2.213462427292538</v>
       </c>
     </row>
     <row r="408">
@@ -5734,11 +5734,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Micah Potter</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2.272475847160516</v>
+        <v>2.2105897406766</v>
       </c>
     </row>
     <row r="409">
@@ -5747,11 +5747,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Antonio Reeves</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2.270897737230217</v>
+        <v>2.207203627467865</v>
       </c>
     </row>
     <row r="410">
@@ -5760,11 +5760,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Dominick Barlow</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2.267971213314372</v>
+        <v>2.206617843856303</v>
       </c>
     </row>
     <row r="411">
@@ -5773,11 +5773,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Caleb Houstan</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.263415150476955</v>
+        <v>2.203784853044265</v>
       </c>
     </row>
     <row r="412">
@@ -5786,11 +5786,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Isaiah Wong</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2.262346053668579</v>
+        <v>2.198650230415878</v>
       </c>
     </row>
     <row r="413">
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2.251784751666305</v>
+        <v>2.1955520032693</v>
       </c>
     </row>
     <row r="414">
@@ -5812,11 +5812,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Isaac Jones</t>
+          <t>Isaiah Wong</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.251721568786635</v>
+        <v>2.178448930752887</v>
       </c>
     </row>
     <row r="415">
@@ -5825,11 +5825,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Jaylen Clark</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2.239832992252603</v>
+        <v>2.169132422130314</v>
       </c>
     </row>
     <row r="416">
@@ -5838,11 +5838,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ousmane Dieng</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2.235955670975131</v>
+        <v>2.16774221315036</v>
       </c>
     </row>
     <row r="417">
@@ -5851,11 +5851,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Alex Reese</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2.232536418201505</v>
+        <v>2.166722589034717</v>
       </c>
     </row>
     <row r="418">
@@ -5864,11 +5864,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tyson Etienne</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2.231958854940113</v>
+        <v>2.151690614326656</v>
       </c>
     </row>
     <row r="419">
@@ -5877,11 +5877,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Dominick Barlow</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2.227893245841254</v>
+        <v>2.149828199783403</v>
       </c>
     </row>
     <row r="420">
@@ -5890,11 +5890,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Caleb Houstan</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2.221632197906606</v>
+        <v>2.147594785902365</v>
       </c>
     </row>
     <row r="421">
@@ -5903,11 +5903,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2.204748158036127</v>
+        <v>2.137847829405177</v>
       </c>
     </row>
     <row r="422">
@@ -5916,11 +5916,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Ousmane Dieng</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2.201123877424203</v>
+        <v>2.135022472645156</v>
       </c>
     </row>
     <row r="423">
@@ -5929,11 +5929,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2.200480098811137</v>
+        <v>2.132301924335485</v>
       </c>
     </row>
     <row r="424">
@@ -5942,11 +5942,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2.199691665328234</v>
+        <v>2.132125659178751</v>
       </c>
     </row>
     <row r="425">
@@ -5955,11 +5955,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Colin Castleton</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.193395020269786</v>
+        <v>2.129999207147981</v>
       </c>
     </row>
     <row r="426">
@@ -5968,11 +5968,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Colby Jones</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2.187324756249889</v>
+        <v>2.127215503463997</v>
       </c>
     </row>
     <row r="427">
@@ -5981,11 +5981,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Tyson Etienne</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2.184920822462936</v>
+        <v>2.111688357967684</v>
       </c>
     </row>
     <row r="428">
@@ -5994,11 +5994,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Isaac Jones</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2.183134057059339</v>
+        <v>2.109151824179058</v>
       </c>
     </row>
     <row r="429">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2.179349581765675</v>
+        <v>2.103833385222354</v>
       </c>
     </row>
     <row r="430">
@@ -6020,11 +6020,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2.162909710004876</v>
+        <v>2.100129865786033</v>
       </c>
     </row>
     <row r="431">
@@ -6033,11 +6033,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2.161262293492519</v>
+        <v>2.095700250168358</v>
       </c>
     </row>
     <row r="432">
@@ -6046,11 +6046,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2.149168568969521</v>
+        <v>2.089876489030075</v>
       </c>
     </row>
     <row r="433">
@@ -6059,11 +6059,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Jaylon Tyson</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2.14142614419589</v>
+        <v>2.089163224533156</v>
       </c>
     </row>
     <row r="434">
@@ -6072,11 +6072,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Branden Carlson</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.140435120183364</v>
+        <v>2.0683421389384</v>
       </c>
     </row>
     <row r="435">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Colby Jones</t>
+          <t>Daeqwon Plowden</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2.135897903587266</v>
+        <v>2.066167916056852</v>
       </c>
     </row>
     <row r="436">
@@ -6098,11 +6098,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2.13548209449515</v>
+        <v>2.058377807517279</v>
       </c>
     </row>
     <row r="437">
@@ -6111,11 +6111,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Kobe Bufkin</t>
+          <t>Jaylon Tyson</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2.11371945740541</v>
+        <v>2.051709053568587</v>
       </c>
     </row>
     <row r="438">
@@ -6124,11 +6124,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Dariq Whitehead</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2.113149481244805</v>
+        <v>2.047100295943355</v>
       </c>
     </row>
     <row r="439">
@@ -6137,11 +6137,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2.096481917456466</v>
+        <v>2.044037595573195</v>
       </c>
     </row>
     <row r="440">
@@ -6150,11 +6150,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Christian Koloko</t>
+          <t>Branden Carlson</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2.073303938029093</v>
+        <v>2.037326162621397</v>
       </c>
     </row>
     <row r="441">
@@ -6163,11 +6163,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Kobe Bufkin</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.070197886475216</v>
+        <v>2.036685030680943</v>
       </c>
     </row>
     <row r="442">
@@ -6176,11 +6176,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Hunter Tyson</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2.049618091507216</v>
+        <v>2.033938414472878</v>
       </c>
     </row>
     <row r="443">
@@ -6189,11 +6189,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Lester Quiñones</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2.041331997666659</v>
+        <v>2.03096842648266</v>
       </c>
     </row>
     <row r="444">
@@ -6202,11 +6202,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Dillon Jones</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2.029317416410875</v>
+        <v>2.013609653774437</v>
       </c>
     </row>
     <row r="445">
@@ -6219,7 +6219,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2.019627960797072</v>
+        <v>2.011883127185583</v>
       </c>
     </row>
     <row r="446">
@@ -6228,11 +6228,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Dillon Jones</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2.01599555022672</v>
+        <v>2.000645634421565</v>
       </c>
     </row>
     <row r="447">
@@ -6241,11 +6241,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Cam Spencer</t>
+          <t>Jaylen Martin</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2.012858573324951</v>
+        <v>1.987678315986924</v>
       </c>
     </row>
     <row r="448">
@@ -6254,11 +6254,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2.005287528331486</v>
+        <v>1.980598491432166</v>
       </c>
     </row>
     <row r="449">
@@ -6267,11 +6267,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Baylor Scheierman</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1.998791633249478</v>
+        <v>1.980576719794692</v>
       </c>
     </row>
     <row r="450">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>Jaylen Sims</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1.996596569650442</v>
+        <v>1.96427800110855</v>
       </c>
     </row>
     <row r="451">
@@ -6293,11 +6293,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>MarJon Beauchamp</t>
+          <t>Christian Koloko</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1.992193734137238</v>
+        <v>1.963744180704195</v>
       </c>
     </row>
     <row r="452">
@@ -6306,11 +6306,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1.983877998399578</v>
+        <v>1.959816712863544</v>
       </c>
     </row>
     <row r="453">
@@ -6319,11 +6319,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.980056002780461</v>
+        <v>1.959382360329621</v>
       </c>
     </row>
     <row r="454">
@@ -6332,11 +6332,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1.976984943724412</v>
+        <v>1.952230326988485</v>
       </c>
     </row>
     <row r="455">
@@ -6345,11 +6345,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1.974351080838671</v>
+        <v>1.942585020094681</v>
       </c>
     </row>
     <row r="456">
@@ -6358,11 +6358,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nae'Qwan Tomlin</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1.973431882391204</v>
+        <v>1.938281654469234</v>
       </c>
     </row>
     <row r="457">
@@ -6371,11 +6371,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Jaylen Martin</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1.972581273884956</v>
+        <v>1.936652575484444</v>
       </c>
     </row>
     <row r="458">
@@ -6384,11 +6384,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Kylor Kelley</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1.968946863141535</v>
+        <v>1.923845095300365</v>
       </c>
     </row>
     <row r="459">
@@ -6397,11 +6397,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Jamal Cain</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1.960571628661816</v>
+        <v>1.905476329857573</v>
       </c>
     </row>
     <row r="460">
@@ -6410,11 +6410,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Cam Spencer</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1.95760607475475</v>
+        <v>1.899268909263412</v>
       </c>
     </row>
     <row r="461">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Marcus Bagley</t>
+          <t>Nae'Qwan Tomlin</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1.956043949036382</v>
+        <v>1.896716446982443</v>
       </c>
     </row>
     <row r="462">
@@ -6436,11 +6436,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Dariq Whitehead</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1.942778764158093</v>
+        <v>1.895181489162687</v>
       </c>
     </row>
     <row r="463">
@@ -6449,11 +6449,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1.939333050556905</v>
+        <v>1.894407929624534</v>
       </c>
     </row>
     <row r="464">
@@ -6462,11 +6462,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.93230935079225</v>
+        <v>1.891669024884979</v>
       </c>
     </row>
     <row r="465">
@@ -6475,11 +6475,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>JT Thor</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1.930725631846652</v>
+        <v>1.885356466549552</v>
       </c>
     </row>
     <row r="466">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1.928568885692659</v>
+        <v>1.884407602683043</v>
       </c>
     </row>
     <row r="467">
@@ -6501,11 +6501,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1.924402450680855</v>
+        <v>1.880866129990455</v>
       </c>
     </row>
     <row r="468">
@@ -6514,11 +6514,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Baylor Scheierman</t>
+          <t>Dario Šarić</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1.922379660803109</v>
+        <v>1.865482596846535</v>
       </c>
     </row>
     <row r="469">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>Cole Swider</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1.920006239147942</v>
+        <v>1.863902844522904</v>
       </c>
     </row>
     <row r="470">
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1.889942260331623</v>
+        <v>1.860283794172996</v>
       </c>
     </row>
     <row r="471">
@@ -6553,11 +6553,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1.882737295469476</v>
+        <v>1.853382883968326</v>
       </c>
     </row>
     <row r="472">
@@ -6566,11 +6566,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Reece Beekman</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1.877608707877707</v>
+        <v>1.843171736773244</v>
       </c>
     </row>
     <row r="473">
@@ -6579,11 +6579,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>PJ Hall</t>
+          <t>Jackson Rowe</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1.868048004165795</v>
+        <v>1.839590194205469</v>
       </c>
     </row>
     <row r="474">
@@ -6592,11 +6592,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1.865582190444864</v>
+        <v>1.839176903591191</v>
       </c>
     </row>
     <row r="475">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Patrick Baldwin Jr.</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1.86242248594342</v>
+        <v>1.834609055172549</v>
       </c>
     </row>
     <row r="476">
@@ -6618,11 +6618,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1.852072450751901</v>
+        <v>1.833370744729623</v>
       </c>
     </row>
     <row r="477">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1.842780216704194</v>
+        <v>1.82581572583552</v>
       </c>
     </row>
     <row r="478">
@@ -6644,11 +6644,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Taze Moore</t>
+          <t>JT Thor</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1.841366221602958</v>
+        <v>1.823691355344195</v>
       </c>
     </row>
     <row r="479">
@@ -6657,11 +6657,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Jamaree Bouyea</t>
+          <t>Taze Moore</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1.840825670954847</v>
+        <v>1.803142852154564</v>
       </c>
     </row>
     <row r="480">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1.83864071608254</v>
+        <v>1.797172055687483</v>
       </c>
     </row>
     <row r="481">
@@ -6683,11 +6683,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Lamar Stevens</t>
+          <t>Kylor Kelley</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1.838484997857789</v>
+        <v>1.791124780695552</v>
       </c>
     </row>
     <row r="482">
@@ -6696,11 +6696,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Johnny Davis</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1.83030401883605</v>
+        <v>1.784106646862198</v>
       </c>
     </row>
     <row r="483">
@@ -6709,11 +6709,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Chris Duarte</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1.829246005388427</v>
+        <v>1.763723229864365</v>
       </c>
     </row>
     <row r="484">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>PJ Hall</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1.822469075886644</v>
+        <v>1.758524453700238</v>
       </c>
     </row>
     <row r="485">
@@ -6735,11 +6735,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1.817196289735572</v>
+        <v>1.753323859552851</v>
       </c>
     </row>
     <row r="486">
@@ -6748,11 +6748,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1.806423328577364</v>
+        <v>1.744851187498455</v>
       </c>
     </row>
     <row r="487">
@@ -6761,11 +6761,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Drew Peterson</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1.801552386663189</v>
+        <v>1.733847368491494</v>
       </c>
     </row>
     <row r="488">
@@ -6774,11 +6774,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Trentyn Flowers</t>
+          <t>Ariel Hukporti</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1.801234913096801</v>
+        <v>1.730690970795248</v>
       </c>
     </row>
     <row r="489">
@@ -6787,11 +6787,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>Chris Duarte</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1.764615093443833</v>
+        <v>1.725692815509947</v>
       </c>
     </row>
     <row r="490">
@@ -6800,11 +6800,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Jeenathan Williams</t>
+          <t>Drew Peterson</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1.74896259894224</v>
+        <v>1.716705554150504</v>
       </c>
     </row>
     <row r="491">
@@ -6813,11 +6813,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Jeenathan Williams</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1.729389308357843</v>
+        <v>1.690731791011962</v>
       </c>
     </row>
     <row r="492">
@@ -6826,11 +6826,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Lester Quiñones</t>
+          <t>Lamar Stevens</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>1.712271964593875</v>
+        <v>1.683508664888151</v>
       </c>
     </row>
     <row r="493">
@@ -6843,7 +6843,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1.711059605439463</v>
+        <v>1.680154620193179</v>
       </c>
     </row>
     <row r="494">
@@ -6852,11 +6852,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Elijah Harkless</t>
+          <t>Jordan Walsh</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1.706966105900934</v>
+        <v>1.678251795305243</v>
       </c>
     </row>
     <row r="495">
@@ -6865,11 +6865,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Jackson Rowe</t>
+          <t>Keshad Johnson</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1.701023598679607</v>
+        <v>1.676263292272572</v>
       </c>
     </row>
     <row r="496">
@@ -6878,11 +6878,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>JD Davison</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1.697536849101202</v>
+        <v>1.667115008288093</v>
       </c>
     </row>
     <row r="497">
@@ -6891,11 +6891,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Reece Beekman</t>
+          <t>Elijah Harkless</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1.672382968961547</v>
+        <v>1.640815286849514</v>
       </c>
     </row>
     <row r="498">
@@ -6904,11 +6904,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1.663464140049726</v>
+        <v>1.639852310804053</v>
       </c>
     </row>
     <row r="499">
@@ -6917,11 +6917,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cole Swider</t>
+          <t>David Duke Jr.</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1.655612886839422</v>
+        <v>1.627469325445695</v>
       </c>
     </row>
     <row r="500">
@@ -6930,11 +6930,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>E.J. Liddell</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1.647035682642748</v>
+        <v>1.602519377835625</v>
       </c>
     </row>
     <row r="501">
@@ -6943,11 +6943,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Alex Ducas</t>
+          <t>E.J. Liddell</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1.607055489513673</v>
+        <v>1.595571758196747</v>
       </c>
     </row>
     <row r="502">
@@ -6956,11 +6956,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Adama Sanogo</t>
+          <t>Miles Norris</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1.601497376047728</v>
+        <v>1.593165755201473</v>
       </c>
     </row>
     <row r="503">
@@ -6969,11 +6969,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Vlatko Čančar</t>
+          <t>Adam Flagler</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1.593048972899606</v>
+        <v>1.590219900382766</v>
       </c>
     </row>
     <row r="504">
@@ -6982,11 +6982,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>RayJ Dennis</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1.567492507622446</v>
+        <v>1.587953395566838</v>
       </c>
     </row>
     <row r="505">
@@ -6995,11 +6995,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Jahmir Young</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1.565968020110891</v>
+        <v>1.5533133601313</v>
       </c>
     </row>
     <row r="506">
@@ -7008,11 +7008,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Jack McVeigh</t>
+          <t>Adama Sanogo</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1.559586567901667</v>
+        <v>1.51135421017579</v>
       </c>
     </row>
     <row r="507">
@@ -7021,11 +7021,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Alex Ducas</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1.554172953249692</v>
+        <v>1.510013983401504</v>
       </c>
     </row>
     <row r="508">
@@ -7034,11 +7034,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Jazian Gortman</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1.553741662643659</v>
+        <v>1.497272411092134</v>
       </c>
     </row>
     <row r="509">
@@ -7047,11 +7047,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Keshad Johnson</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1.545701806560045</v>
+        <v>1.495416031284514</v>
       </c>
     </row>
     <row r="510">
@@ -7060,11 +7060,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>JD Davison</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1.530748223413474</v>
+        <v>1.493727236114942</v>
       </c>
     </row>
     <row r="511">
@@ -7073,11 +7073,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Jazian Gortman</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1.525936374796123</v>
+        <v>1.472313123457808</v>
       </c>
     </row>
     <row r="512">
@@ -7086,11 +7086,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Skal Labissière</t>
+          <t>Vlatko Čančar</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1.520396976044762</v>
+        <v>1.463250808138808</v>
       </c>
     </row>
     <row r="513">
@@ -7099,11 +7099,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1.509738666533007</v>
+        <v>1.46271556186987</v>
       </c>
     </row>
     <row r="514">
@@ -7112,11 +7112,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Chris Livingston</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1.50407243971848</v>
+        <v>1.46225735769294</v>
       </c>
     </row>
     <row r="515">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Adam Flagler</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1.502710448878639</v>
+        <v>1.44810417045534</v>
       </c>
     </row>
     <row r="516">
@@ -7138,11 +7138,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Chris Livingston</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1.491547225067402</v>
+        <v>1.43419453322659</v>
       </c>
     </row>
     <row r="517">
@@ -7151,11 +7151,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>RayJ Dennis</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1.462923143721162</v>
+        <v>1.428170080533257</v>
       </c>
     </row>
     <row r="518">
@@ -7164,11 +7164,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Yuri Collins</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1.424250592184413</v>
+        <v>1.426111254388326</v>
       </c>
     </row>
     <row r="519">
@@ -7177,11 +7177,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Skal Labissière</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1.41692254795346</v>
+        <v>1.421106688185344</v>
       </c>
     </row>
     <row r="520">
@@ -7190,11 +7190,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>Yuri Collins</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1.409012969983769</v>
+        <v>1.377514926161521</v>
       </c>
     </row>
     <row r="521">
@@ -7203,11 +7203,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Anton Watson</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1.38904129813916</v>
+        <v>1.358833172398333</v>
       </c>
     </row>
     <row r="522">
@@ -7216,11 +7216,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Bryce McGowens</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1.384223976090894</v>
+        <v>1.33381243502408</v>
       </c>
     </row>
     <row r="523">
@@ -7229,11 +7229,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1.379518012833965</v>
+        <v>1.332920828266165</v>
       </c>
     </row>
     <row r="524">
@@ -7242,11 +7242,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>Anton Watson</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1.375304155803187</v>
+        <v>1.318108010871468</v>
       </c>
     </row>
     <row r="525">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Bryce McGowens</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1.370862616859989</v>
+        <v>1.317064700451984</v>
       </c>
     </row>
     <row r="526">
@@ -7268,11 +7268,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Isaiah Crawford</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1.365426810964457</v>
+        <v>1.305770437834764</v>
       </c>
     </row>
     <row r="527">
@@ -7281,11 +7281,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Trentyn Flowers</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1.351930325013659</v>
+        <v>1.293954980843933</v>
       </c>
     </row>
     <row r="528">
@@ -7294,11 +7294,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Armel Traoré</t>
+          <t>Harrison Ingram</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1.318582252953562</v>
+        <v>1.285482554214003</v>
       </c>
     </row>
     <row r="529">
@@ -7307,11 +7307,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Phillip Wheeler</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1.286692732417397</v>
+        <v>1.284424347245381</v>
       </c>
     </row>
     <row r="530">
@@ -7320,11 +7320,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Josh Christopher</t>
+          <t>Jamaree Bouyea</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1.278304492986784</v>
+        <v>1.283858212461427</v>
       </c>
     </row>
     <row r="531">
@@ -7333,11 +7333,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Pete Nance</t>
+          <t>Isaiah Crawford</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1.264964185799397</v>
+        <v>1.281021162866796</v>
       </c>
     </row>
     <row r="532">
@@ -7346,11 +7346,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1.239386748273186</v>
+        <v>1.274339262856008</v>
       </c>
     </row>
     <row r="533">
@@ -7359,11 +7359,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>David Duke Jr.</t>
+          <t>Pete Nance</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1.236837384372067</v>
+        <v>1.269528829652551</v>
       </c>
     </row>
     <row r="534">
@@ -7372,11 +7372,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Stanley Umude</t>
+          <t>Armel Traoré</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1.20878992675523</v>
+        <v>1.268150449383439</v>
       </c>
     </row>
     <row r="535">
@@ -7385,11 +7385,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Liam Robbins</t>
+          <t>Emoni Bates</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1.201088757878155</v>
+        <v>1.261500592041772</v>
       </c>
     </row>
     <row r="536">
@@ -7398,11 +7398,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>Jack McVeigh</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1.175930236352548</v>
+        <v>1.239591419050073</v>
       </c>
     </row>
     <row r="537">
@@ -7411,11 +7411,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Braxton Key</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1.172918956231976</v>
+        <v>1.22459916019375</v>
       </c>
     </row>
     <row r="538">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Luke Travers</t>
+          <t>Josh Christopher</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1.164580720524139</v>
+        <v>1.22236140476307</v>
       </c>
     </row>
     <row r="539">
@@ -7437,11 +7437,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Emoni Bates</t>
+          <t>Stanley Umude</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1.162214932619647</v>
+        <v>1.216527934355827</v>
       </c>
     </row>
     <row r="540">
@@ -7450,11 +7450,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>League Average</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1.157151750278707</v>
+        <v>1.182265059833708</v>
       </c>
     </row>
     <row r="541">
@@ -7463,11 +7463,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Phillip Wheeler</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1.153253924086395</v>
+        <v>1.179208067348408</v>
       </c>
     </row>
     <row r="542">
@@ -7476,11 +7476,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Quincy Olivari</t>
+          <t>Emanuel Miller</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1.128963216279339</v>
+        <v>1.169857485466081</v>
       </c>
     </row>
     <row r="543">
@@ -7489,11 +7489,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Harrison Ingram</t>
+          <t>Liam Robbins</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1.079758470618331</v>
+        <v>1.139774363964009</v>
       </c>
     </row>
     <row r="544">
@@ -7502,11 +7502,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Jacob Toppin</t>
+          <t>Justin Minaya</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1.069219437087522</v>
+        <v>1.123024739981378</v>
       </c>
     </row>
     <row r="545">
@@ -7515,11 +7515,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Cui Yongxi</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1.060385602237989</v>
+        <v>1.112873532978833</v>
       </c>
     </row>
     <row r="546">
@@ -7528,11 +7528,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tristen Newton</t>
+          <t>Jalen Bridges</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1.055625041917475</v>
+        <v>1.10900114252196</v>
       </c>
     </row>
     <row r="547">
@@ -7541,11 +7541,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Daishen Nix</t>
+          <t>Daniss Jenkins</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1.036249367820658</v>
+        <v>1.107520520767319</v>
       </c>
     </row>
     <row r="548">
@@ -7554,11 +7554,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Jalen Bridges</t>
+          <t>Luke Travers</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1.013069710212022</v>
+        <v>1.097626437547794</v>
       </c>
     </row>
     <row r="549">
@@ -7567,11 +7567,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>D.J. Carton</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0.9958061298582142</v>
+        <v>1.084468586156299</v>
       </c>
     </row>
     <row r="550">
@@ -7580,11 +7580,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Kevin McCullar Jr.</t>
+          <t>Quincy Olivari</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0.9597939334331276</v>
+        <v>1.081476034222228</v>
       </c>
     </row>
     <row r="551">
@@ -7593,11 +7593,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Malevy Leons</t>
+          <t>League Average</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0.7886461714168622</v>
+        <v>1.066459102245324</v>
       </c>
     </row>
     <row r="552">
@@ -7606,11 +7606,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Justin Minaya</t>
+          <t>Cui Yongxi</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0.7835207307183801</v>
+        <v>1.026695860934335</v>
       </c>
     </row>
     <row r="553">
@@ -7619,11 +7619,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Isaiah Stevens</t>
+          <t>Tristen Newton</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0.6401247840518529</v>
+        <v>1.02310940409242</v>
       </c>
     </row>
     <row r="554">
@@ -7632,11 +7632,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Jacob Toppin</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0.6106644579807997</v>
+        <v>1.015906340830148</v>
       </c>
     </row>
     <row r="555">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Terry Taylor</t>
+          <t>Daishen Nix</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0.6102820118412322</v>
+        <v>0.9944825190422477</v>
       </c>
     </row>
     <row r="556">
@@ -7658,11 +7658,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Jahlil Okafor</t>
+          <t>D.J. Carton</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.5926483511491009</v>
+        <v>0.9661388540544289</v>
       </c>
     </row>
     <row r="557">
@@ -7671,11 +7671,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Kevin McCullar Jr.</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0.5089571298266951</v>
+        <v>0.8175830546520637</v>
       </c>
     </row>
     <row r="558">
@@ -7684,11 +7684,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Emanuel Miller</t>
+          <t>Malevy Leons</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0.488268173605505</v>
+        <v>0.7452585558484092</v>
       </c>
     </row>
     <row r="559">
@@ -7697,11 +7697,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Miles Norris</t>
+          <t>Isaiah Stevens</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0.4879578392621871</v>
+        <v>0.6419977686688758</v>
       </c>
     </row>
     <row r="560">
@@ -7710,11 +7710,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0.481035906149139</v>
+        <v>0.6118946679171379</v>
       </c>
     </row>
     <row r="561">
@@ -7723,11 +7723,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Terry Taylor</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0.4707755925137557</v>
+        <v>0.6111108344802589</v>
       </c>
     </row>
     <row r="562">
@@ -7736,11 +7736,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Jahmir Young</t>
+          <t>Jahlil Okafor</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0.4441129085806747</v>
+        <v>0.5953145190391125</v>
       </c>
     </row>
     <row r="563">
@@ -7749,11 +7749,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zyon Pullin</t>
+          <t>Riley Minix</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.3784962863223733</v>
+        <v>0.5117145780980628</v>
       </c>
     </row>
     <row r="564">
@@ -7762,11 +7762,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Jesse Edwards</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0.3044401176035359</v>
+        <v>0.4798222559823681</v>
       </c>
     </row>
     <row r="565">
@@ -7775,11 +7775,37 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0.2434857895727461</v>
+        <v>0.4725274319245258</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Zyon Pullin</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>0.3785094427130408</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Jesse Edwards</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0.3057426654086814</v>
       </c>
     </row>
   </sheetData>

--- a/ranked_players.xlsx
+++ b/ranked_players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C567"/>
+  <dimension ref="A1:C571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.752647314138537</v>
+        <v>7.73564719419864</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.092686108324704</v>
+        <v>7.098891572233441</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.066258909737408</v>
+        <v>7.070539922814141</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.226733759738138</v>
+        <v>6.233828934358403</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.204823869652831</v>
+        <v>6.207155860965692</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.10446095750228</v>
+        <v>6.105452708541801</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.099006642795644</v>
+        <v>6.102284915023852</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.084751256068212</v>
+        <v>6.086936174389221</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.945029217988502</v>
+        <v>5.981803321048737</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.936407314134373</v>
+        <v>5.950769515129157</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.897457552180347</v>
+        <v>5.924576647265784</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.88098201342357</v>
+        <v>5.8905835013362</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.841795464198868</v>
+        <v>5.882267910446788</v>
       </c>
     </row>
     <row r="15">
@@ -625,11 +625,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.83281931043271</v>
+        <v>5.848137989584028</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.609412203905391</v>
+        <v>5.610712738134879</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.5697970873867</v>
+        <v>5.576817061511397</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +664,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alperen Şengün</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.561763869702077</v>
+        <v>5.565913387454899</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.556181801246636</v>
+        <v>5.559000869294279</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Alperen Şengün</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.536852910148359</v>
+        <v>5.555754604518879</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.509173969960774</v>
+        <v>5.512989783788605</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +716,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.471544245645377</v>
+        <v>5.486539034063604</v>
       </c>
     </row>
     <row r="23">
@@ -729,11 +729,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.461231152516655</v>
+        <v>5.472145385325657</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.445788253390708</v>
+        <v>5.444613928890442</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.410993611161004</v>
+        <v>5.415924219008296</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.358215707087123</v>
+        <v>5.364525752812463</v>
       </c>
     </row>
     <row r="27">
@@ -781,11 +781,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.325624223413737</v>
+        <v>5.330317143439599</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.323316345302982</v>
+        <v>5.328173683928732</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.315496504080648</v>
+        <v>5.324121644478053</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.313746397034006</v>
+        <v>5.313377275525579</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.303312537229807</v>
+        <v>5.307019337367723</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.299955411204335</v>
+        <v>5.292544069035512</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.276636440504293</v>
+        <v>5.280883572062889</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.258865352400496</v>
+        <v>5.261378985256923</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.200030491004694</v>
+        <v>5.193375032878276</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.17918938480578</v>
+        <v>5.179749259936843</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.15130608932327</v>
+        <v>5.156640579720724</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.108920425956321</v>
+        <v>5.135244912350528</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.09835689804296</v>
+        <v>5.112502151392348</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.094102568600226</v>
+        <v>5.093243022358267</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.091829934883854</v>
+        <v>5.086951825037569</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.083229049032274</v>
+        <v>5.082426159903171</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.064284049942474</v>
+        <v>5.066888854035263</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.05933339053493</v>
+        <v>5.060814032192971</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.049234632624673</v>
+        <v>5.045356548233533</v>
       </c>
     </row>
     <row r="46">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.01522479660241</v>
+        <v>5.019252932219445</v>
       </c>
     </row>
     <row r="47">
@@ -1041,11 +1041,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5.012261193463114</v>
+        <v>5.013203913602168</v>
       </c>
     </row>
     <row r="48">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.012135771284019</v>
+        <v>5.006843289887887</v>
       </c>
     </row>
     <row r="49">
@@ -1067,11 +1067,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.971046395765176</v>
+        <v>4.975344042129926</v>
       </c>
     </row>
     <row r="50">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.967430812115276</v>
+        <v>4.970268677692491</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.960863122918634</v>
+        <v>4.927732000453152</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.913843840536668</v>
+        <v>4.921699080011432</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.87240465034225</v>
+        <v>4.879016027902686</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.867443257207746</v>
+        <v>4.870579750583286</v>
       </c>
     </row>
     <row r="55">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.86193182564605</v>
+        <v>4.862227020972841</v>
       </c>
     </row>
     <row r="56">
@@ -1158,11 +1158,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.858627431135876</v>
+        <v>4.84133547933798</v>
       </c>
     </row>
     <row r="57">
@@ -1171,11 +1171,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.816973803396789</v>
+        <v>4.831865107155827</v>
       </c>
     </row>
     <row r="58">
@@ -1184,11 +1184,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.806035922158249</v>
+        <v>4.776076111360674</v>
       </c>
     </row>
     <row r="59">
@@ -1197,11 +1197,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4.770960131025662</v>
+        <v>4.770764399744277</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.730677515679877</v>
+        <v>4.754020930419026</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4.729792491589526</v>
+        <v>4.732066423931211</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.714842269329242</v>
+        <v>4.70395001755988</v>
       </c>
     </row>
     <row r="63">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.645534160527103</v>
+        <v>4.660291054463216</v>
       </c>
     </row>
     <row r="64">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.632629860094805</v>
+        <v>4.657264936249884</v>
       </c>
     </row>
     <row r="65">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.6264313440794</v>
+        <v>4.647572005856265</v>
       </c>
     </row>
     <row r="66">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.623820063771725</v>
+        <v>4.634339480742452</v>
       </c>
     </row>
     <row r="67">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.61517132999183</v>
+        <v>4.625696904664084</v>
       </c>
     </row>
     <row r="68">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.60917410607191</v>
+        <v>4.615286112451729</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.607695829021607</v>
+        <v>4.611771907314996</v>
       </c>
     </row>
     <row r="70">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.596727082864914</v>
+        <v>4.604459652564172</v>
       </c>
     </row>
     <row r="71">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.55390762940704</v>
+        <v>4.558143791849859</v>
       </c>
     </row>
     <row r="72">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.552249038686277</v>
+        <v>4.556155689763147</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.540460224714217</v>
+        <v>4.537648866887325</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.531113583450067</v>
+        <v>4.529148693164232</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.527130373435083</v>
+        <v>4.520880720254461</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.471276824206665</v>
+        <v>4.470301425525825</v>
       </c>
     </row>
     <row r="77">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.459722077548461</v>
+        <v>4.466660431652803</v>
       </c>
     </row>
     <row r="78">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.456365342843261</v>
+        <v>4.466461034128911</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.442741239457937</v>
+        <v>4.451224601002673</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.439780337855359</v>
+        <v>4.437626409099299</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.434271691747825</v>
+        <v>4.437120034208006</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.432892376513438</v>
+        <v>4.434103685646993</v>
       </c>
     </row>
     <row r="83">
@@ -1509,11 +1509,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.4323815053128</v>
+        <v>4.426644612720628</v>
       </c>
     </row>
     <row r="84">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.42463618455547</v>
+        <v>4.426476216514975</v>
       </c>
     </row>
     <row r="85">
@@ -1535,11 +1535,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.423437306686493</v>
+        <v>4.414270596895981</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.388263123583892</v>
+        <v>4.394179713533773</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.348752816193423</v>
+        <v>4.363901975692978</v>
       </c>
     </row>
     <row r="88">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.34117337451873</v>
+        <v>4.349800716552077</v>
       </c>
     </row>
     <row r="89">
@@ -1587,11 +1587,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.330418873116411</v>
+        <v>4.349660084062216</v>
       </c>
     </row>
     <row r="90">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.310249643538954</v>
+        <v>4.333183405423918</v>
       </c>
     </row>
     <row r="91">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.302902872001569</v>
+        <v>4.308073558567818</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.297909702610007</v>
+        <v>4.302345554655071</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.255678768860363</v>
+        <v>4.257613452816482</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.230669870156446</v>
+        <v>4.223874840710576</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.186844909164875</v>
+        <v>4.193362522847569</v>
       </c>
     </row>
     <row r="96">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4.14461303652819</v>
+        <v>4.160444283620276</v>
       </c>
     </row>
     <row r="97">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.137415244805569</v>
+        <v>4.144942608639813</v>
       </c>
     </row>
     <row r="98">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4.135870086867562</v>
+        <v>4.137105509774313</v>
       </c>
     </row>
     <row r="99">
@@ -1717,11 +1717,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Jonas Valančiūnas</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.131958089759267</v>
+        <v>4.136890546629922</v>
       </c>
     </row>
     <row r="100">
@@ -1730,11 +1730,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4.1299674602647</v>
+        <v>4.132411030482517</v>
       </c>
     </row>
     <row r="101">
@@ -1743,11 +1743,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.125922026126169</v>
+        <v>4.131807012934106</v>
       </c>
     </row>
     <row r="102">
@@ -1756,11 +1756,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.108782452102472</v>
+        <v>4.129127607955332</v>
       </c>
     </row>
     <row r="103">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.1057831147456</v>
+        <v>4.118161869659415</v>
       </c>
     </row>
     <row r="104">
@@ -1782,11 +1782,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.103380890503336</v>
+        <v>4.115937317702224</v>
       </c>
     </row>
     <row r="105">
@@ -1795,11 +1795,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.101995443602956</v>
+        <v>4.112132508503706</v>
       </c>
     </row>
     <row r="106">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4.093808059089243</v>
+        <v>4.104705981769116</v>
       </c>
     </row>
     <row r="107">
@@ -1821,11 +1821,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4.091838350799665</v>
+        <v>4.090923890947067</v>
       </c>
     </row>
     <row r="108">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.085836387396657</v>
+        <v>4.09056256161237</v>
       </c>
     </row>
     <row r="109">
@@ -1847,11 +1847,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Bennedict Mathurin</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.084460794896161</v>
+        <v>4.08520574231582</v>
       </c>
     </row>
     <row r="110">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4.07444403212414</v>
+        <v>4.079108227152633</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4.059697152774321</v>
+        <v>4.064575086060799</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.051361439331755</v>
+        <v>4.051447473075985</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.046255829526677</v>
+        <v>4.047666765408817</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4.039878572279631</v>
+        <v>4.038032235930476</v>
       </c>
     </row>
     <row r="115">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.03585934369851</v>
+        <v>4.037233647890845</v>
       </c>
     </row>
     <row r="116">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4.023552097180238</v>
+        <v>4.03619226380888</v>
       </c>
     </row>
     <row r="117">
@@ -1951,11 +1951,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4.017957533907033</v>
+        <v>4.026692428408428</v>
       </c>
     </row>
     <row r="118">
@@ -1964,11 +1964,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4.010931449495647</v>
+        <v>4.017849935971017</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3.994532612065849</v>
+        <v>4.007626868057375</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3.978111702064814</v>
+        <v>3.976696486266746</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3.970910016410026</v>
+        <v>3.965904764917341</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3.960626513842572</v>
+        <v>3.964496751275012</v>
       </c>
     </row>
     <row r="123">
@@ -2029,11 +2029,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.949431220704239</v>
+        <v>3.959750756143302</v>
       </c>
     </row>
     <row r="124">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.940039342659166</v>
+        <v>3.954914730233972</v>
       </c>
     </row>
     <row r="125">
@@ -2055,11 +2055,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3.939598398944196</v>
+        <v>3.933752932188824</v>
       </c>
     </row>
     <row r="126">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3.916257572413215</v>
+        <v>3.924243390999755</v>
       </c>
     </row>
     <row r="127">
@@ -2081,11 +2081,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3.910350552342253</v>
+        <v>3.92405825220942</v>
       </c>
     </row>
     <row r="128">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.900803227986251</v>
+        <v>3.921814267974293</v>
       </c>
     </row>
     <row r="129">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3.882648010869723</v>
+        <v>3.912086800332848</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3.876204527417833</v>
+        <v>3.873278173901554</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3.854914562384136</v>
+        <v>3.871415122616162</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3.833512018086551</v>
+        <v>3.836082217784655</v>
       </c>
     </row>
     <row r="133">
@@ -2159,11 +2159,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.81498193125771</v>
+        <v>3.824648527142564</v>
       </c>
     </row>
     <row r="134">
@@ -2172,11 +2172,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3.798684893374111</v>
+        <v>3.817261157738574</v>
       </c>
     </row>
     <row r="135">
@@ -2185,11 +2185,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3.793908565019271</v>
+        <v>3.804548250752434</v>
       </c>
     </row>
     <row r="136">
@@ -2198,11 +2198,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3.788898613630071</v>
+        <v>3.800673796680098</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3.785215110298672</v>
+        <v>3.799315224458318</v>
       </c>
     </row>
     <row r="138">
@@ -2224,11 +2224,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Aaron Wiggins</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3.774886795368291</v>
+        <v>3.796812459907341</v>
       </c>
     </row>
     <row r="139">
@@ -2237,11 +2237,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.765912604685406</v>
+        <v>3.790377441404375</v>
       </c>
     </row>
     <row r="140">
@@ -2250,11 +2250,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.758254829609448</v>
+        <v>3.77414133363061</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.755263415974719</v>
+        <v>3.75336836372148</v>
       </c>
     </row>
     <row r="142">
@@ -2276,11 +2276,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.749772131135684</v>
+        <v>3.752858765055016</v>
       </c>
     </row>
     <row r="143">
@@ -2289,11 +2289,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.745220699862752</v>
+        <v>3.751727510881842</v>
       </c>
     </row>
     <row r="144">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.744944270895696</v>
+        <v>3.751595650233416</v>
       </c>
     </row>
     <row r="145">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.743010514888941</v>
+        <v>3.746660956860186</v>
       </c>
     </row>
     <row r="146">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Aaron Wiggins</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3.736957256656479</v>
+        <v>3.744869295370967</v>
       </c>
     </row>
     <row r="147">
@@ -2341,11 +2341,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3.736023424011213</v>
+        <v>3.739261518284631</v>
       </c>
     </row>
     <row r="148">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3.732564642889048</v>
+        <v>3.736142845094034</v>
       </c>
     </row>
     <row r="149">
@@ -2367,11 +2367,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.717248583205456</v>
+        <v>3.731307511552729</v>
       </c>
     </row>
     <row r="150">
@@ -2380,11 +2380,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.716344128954361</v>
+        <v>3.720775829485611</v>
       </c>
     </row>
     <row r="151">
@@ -2393,11 +2393,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3.713135544421396</v>
+        <v>3.717281829023089</v>
       </c>
     </row>
     <row r="152">
@@ -2406,11 +2406,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3.711933402348526</v>
+        <v>3.715974306516776</v>
       </c>
     </row>
     <row r="153">
@@ -2419,11 +2419,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.702324965625748</v>
+        <v>3.710453274381336</v>
       </c>
     </row>
     <row r="154">
@@ -2432,11 +2432,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3.698742203689572</v>
+        <v>3.703683204999686</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3.695560876097448</v>
+        <v>3.697532394275489</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3.69132905204</v>
+        <v>3.685901267705945</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3.680872321090134</v>
+        <v>3.66706803100076</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3.643192086225145</v>
+        <v>3.662847941437999</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3.643039289684205</v>
+        <v>3.641505574377668</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3.635046963436164</v>
+        <v>3.634253907228051</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3.626611474947231</v>
+        <v>3.62553026782376</v>
       </c>
     </row>
     <row r="162">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.615262750872072</v>
+        <v>3.60435326925078</v>
       </c>
     </row>
     <row r="163">
@@ -2549,11 +2549,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.594202619377161</v>
+        <v>3.592002177302583</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.578853662838626</v>
+        <v>3.574869824433065</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.574351776924942</v>
+        <v>3.573617269541904</v>
       </c>
     </row>
     <row r="166">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3.569042160710481</v>
+        <v>3.568278378914905</v>
       </c>
     </row>
     <row r="167">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.565196894169865</v>
+        <v>3.566591301133516</v>
       </c>
     </row>
     <row r="168">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.558850113800653</v>
+        <v>3.559164347776846</v>
       </c>
     </row>
     <row r="169">
@@ -2627,11 +2627,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3.557800370042137</v>
+        <v>3.555537392490628</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3.526186910089445</v>
+        <v>3.537061816251393</v>
       </c>
     </row>
     <row r="171">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3.521363584797983</v>
+        <v>3.534013003161165</v>
       </c>
     </row>
     <row r="172">
@@ -2666,11 +2666,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.515498630899117</v>
+        <v>3.52466638158166</v>
       </c>
     </row>
     <row r="173">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Bub Carrington</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.509861748276648</v>
+        <v>3.521481451254267</v>
       </c>
     </row>
     <row r="174">
@@ -2692,11 +2692,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.50887577975047</v>
+        <v>3.505248533018175</v>
       </c>
     </row>
     <row r="175">
@@ -2705,11 +2705,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3.494190181873057</v>
+        <v>3.504564903071714</v>
       </c>
     </row>
     <row r="176">
@@ -2718,11 +2718,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.487898905721234</v>
+        <v>3.496902940813958</v>
       </c>
     </row>
     <row r="177">
@@ -2731,11 +2731,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.484474104951902</v>
+        <v>3.495326001989773</v>
       </c>
     </row>
     <row r="178">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3.47757163528266</v>
+        <v>3.494879634644852</v>
       </c>
     </row>
     <row r="179">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.474900959890457</v>
+        <v>3.488239418071925</v>
       </c>
     </row>
     <row r="180">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Anthony Black</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3.472741774768599</v>
+        <v>3.484190713883778</v>
       </c>
     </row>
     <row r="181">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3.472430455971336</v>
+        <v>3.478474161226249</v>
       </c>
     </row>
     <row r="182">
@@ -2796,11 +2796,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Donovan Clingan</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3.470989478832657</v>
+        <v>3.474875715820585</v>
       </c>
     </row>
     <row r="183">
@@ -2809,11 +2809,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3.468281650171324</v>
+        <v>3.473579242001733</v>
       </c>
     </row>
     <row r="184">
@@ -2822,11 +2822,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Keon Johnson</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3.459849209381117</v>
+        <v>3.468773606929916</v>
       </c>
     </row>
     <row r="185">
@@ -2835,11 +2835,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Keon Johnson</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3.458531246599993</v>
+        <v>3.465922099598339</v>
       </c>
     </row>
     <row r="186">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3.448965725893137</v>
+        <v>3.44849455372617</v>
       </c>
     </row>
     <row r="187">
@@ -2861,11 +2861,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3.440129993912503</v>
+        <v>3.445286865893221</v>
       </c>
     </row>
     <row r="188">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3.429989013189918</v>
+        <v>3.430304683381625</v>
       </c>
     </row>
     <row r="189">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3.429308339132083</v>
+        <v>3.42886728819851</v>
       </c>
     </row>
     <row r="190">
@@ -2900,11 +2900,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3.428532956881989</v>
+        <v>3.428376496532603</v>
       </c>
     </row>
     <row r="191">
@@ -2913,11 +2913,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3.428252355131205</v>
+        <v>3.426313202616953</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.420542812784719</v>
+        <v>3.419420912538347</v>
       </c>
     </row>
     <row r="193">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.384719678810569</v>
+        <v>3.395393049735391</v>
       </c>
     </row>
     <row r="194">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.384059980242209</v>
+        <v>3.385738411069208</v>
       </c>
     </row>
     <row r="195">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3.37675767168338</v>
+        <v>3.382908792334677</v>
       </c>
     </row>
     <row r="196">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.35901400061578</v>
+        <v>3.375649426719543</v>
       </c>
     </row>
     <row r="197">
@@ -2991,11 +2991,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3.354325391508088</v>
+        <v>3.375156798440196</v>
       </c>
     </row>
     <row r="198">
@@ -3004,11 +3004,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3.349285053406597</v>
+        <v>3.371874207507237</v>
       </c>
     </row>
     <row r="199">
@@ -3017,11 +3017,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3.348727609428823</v>
+        <v>3.365023694526952</v>
       </c>
     </row>
     <row r="200">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3.335184081359617</v>
+        <v>3.360909756257524</v>
       </c>
     </row>
     <row r="201">
@@ -3043,11 +3043,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Jaylen Wells</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3.332278118691223</v>
+        <v>3.356267744859997</v>
       </c>
     </row>
     <row r="202">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.328128934871178</v>
+        <v>3.340652252753921</v>
       </c>
     </row>
     <row r="203">
@@ -3069,11 +3069,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nikola Jović</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.327468514608196</v>
+        <v>3.338905086412987</v>
       </c>
     </row>
     <row r="204">
@@ -3082,11 +3082,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.322418425452798</v>
+        <v>3.334007670684319</v>
       </c>
     </row>
     <row r="205">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.321312243739647</v>
+        <v>3.329371410129491</v>
       </c>
     </row>
     <row r="206">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Nikola Jović</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3.32098363010981</v>
+        <v>3.328382329759305</v>
       </c>
     </row>
     <row r="207">
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3.313366293207579</v>
+        <v>3.324086234956903</v>
       </c>
     </row>
     <row r="208">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3.308751115820878</v>
+        <v>3.318119754360719</v>
       </c>
     </row>
     <row r="209">
@@ -3147,11 +3147,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3.308746624922332</v>
+        <v>3.318101733321164</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.30827431501334</v>
+        <v>3.316111425867522</v>
       </c>
     </row>
     <row r="211">
@@ -3173,11 +3173,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.303663685114527</v>
+        <v>3.313668481709184</v>
       </c>
     </row>
     <row r="212">
@@ -3186,11 +3186,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.29334957104065</v>
+        <v>3.307577594561247</v>
       </c>
     </row>
     <row r="213">
@@ -3199,11 +3199,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3.290495843396237</v>
+        <v>3.299290882892629</v>
       </c>
     </row>
     <row r="214">
@@ -3212,11 +3212,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3.281415713022119</v>
+        <v>3.279641544699177</v>
       </c>
     </row>
     <row r="215">
@@ -3225,11 +3225,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3.278248551957295</v>
+        <v>3.277931170929734</v>
       </c>
     </row>
     <row r="216">
@@ -3238,11 +3238,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.275180880296276</v>
+        <v>3.27618874621971</v>
       </c>
     </row>
     <row r="217">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3.266944780686255</v>
+        <v>3.276149092163594</v>
       </c>
     </row>
     <row r="218">
@@ -3264,11 +3264,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3.265637231306286</v>
+        <v>3.269608731840827</v>
       </c>
     </row>
     <row r="219">
@@ -3277,11 +3277,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.263904045899209</v>
+        <v>3.268399628187202</v>
       </c>
     </row>
     <row r="220">
@@ -3290,11 +3290,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3.252737026912133</v>
+        <v>3.264799562550207</v>
       </c>
     </row>
     <row r="221">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3.248406676244871</v>
+        <v>3.263830788157926</v>
       </c>
     </row>
     <row r="222">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.242999837143727</v>
+        <v>3.260672491090519</v>
       </c>
     </row>
     <row r="223">
@@ -3329,11 +3329,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3.235180258891047</v>
+        <v>3.253595532383487</v>
       </c>
     </row>
     <row r="224">
@@ -3342,11 +3342,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.234404044589214</v>
+        <v>3.244225082554392</v>
       </c>
     </row>
     <row r="225">
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.228687062717963</v>
+        <v>3.241668429315885</v>
       </c>
     </row>
     <row r="226">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3.226923128827453</v>
+        <v>3.230416453223056</v>
       </c>
     </row>
     <row r="227">
@@ -3381,11 +3381,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Bogdan Bogdanović</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3.221191799261164</v>
+        <v>3.227334970589695</v>
       </c>
     </row>
     <row r="228">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3.207978110876812</v>
+        <v>3.208402026991256</v>
       </c>
     </row>
     <row r="229">
@@ -3407,11 +3407,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3.193951715439973</v>
+        <v>3.202572193831339</v>
       </c>
     </row>
     <row r="230">
@@ -3420,11 +3420,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3.180211126025376</v>
+        <v>3.200564044135531</v>
       </c>
     </row>
     <row r="231">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Tolu Smith</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3.177860619323173</v>
+        <v>3.184005963173947</v>
       </c>
     </row>
     <row r="232">
@@ -3446,11 +3446,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Moussa Diabaté</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3.170687279893636</v>
+        <v>3.182659069919854</v>
       </c>
     </row>
     <row r="233">
@@ -3459,11 +3459,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Kyshawn George</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3.170471840449015</v>
+        <v>3.176044763523365</v>
       </c>
     </row>
     <row r="234">
@@ -3472,11 +3472,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3.169811142095535</v>
+        <v>3.174015189990968</v>
       </c>
     </row>
     <row r="235">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3.167904285836674</v>
+        <v>3.173996854659523</v>
       </c>
     </row>
     <row r="236">
@@ -3498,11 +3498,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Moussa Diabaté</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3.166520131537699</v>
+        <v>3.169328736501718</v>
       </c>
     </row>
     <row r="237">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3.148085766794893</v>
+        <v>3.16672926040725</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3.146140720893574</v>
+        <v>3.143270113312448</v>
       </c>
     </row>
     <row r="239">
@@ -3537,11 +3537,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.141176402741121</v>
+        <v>3.143244547684342</v>
       </c>
     </row>
     <row r="240">
@@ -3550,11 +3550,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.13577491666551</v>
+        <v>3.143095047632652</v>
       </c>
     </row>
     <row r="241">
@@ -3563,11 +3563,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3.134765540272719</v>
+        <v>3.137430496646293</v>
       </c>
     </row>
     <row r="242">
@@ -3576,11 +3576,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3.1298262250539</v>
+        <v>3.136404394335193</v>
       </c>
     </row>
     <row r="243">
@@ -3589,11 +3589,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3.1190477713508</v>
+        <v>3.133108363299329</v>
       </c>
     </row>
     <row r="244">
@@ -3602,11 +3602,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3.11758083470218</v>
+        <v>3.132674604859595</v>
       </c>
     </row>
     <row r="245">
@@ -3615,11 +3615,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3.112457845902277</v>
+        <v>3.132393999563055</v>
       </c>
     </row>
     <row r="246">
@@ -3628,11 +3628,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3.105807025247204</v>
+        <v>3.130575079121082</v>
       </c>
     </row>
     <row r="247">
@@ -3641,11 +3641,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3.102446323739665</v>
+        <v>3.1271381856401</v>
       </c>
     </row>
     <row r="248">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3.099772517532061</v>
+        <v>3.114453024823903</v>
       </c>
     </row>
     <row r="249">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3.096034876013961</v>
+        <v>3.098298786168745</v>
       </c>
     </row>
     <row r="250">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Drew Timme</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3.093220082617182</v>
+        <v>3.094751949562373</v>
       </c>
     </row>
     <row r="251">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3.070291560819591</v>
+        <v>3.091638590786459</v>
       </c>
     </row>
     <row r="252">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3.060375791853624</v>
+        <v>3.071718314932981</v>
       </c>
     </row>
     <row r="253">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3.047781756767835</v>
+        <v>3.069724057773852</v>
       </c>
     </row>
     <row r="254">
@@ -3732,11 +3732,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.029125141255731</v>
+        <v>3.062717522274882</v>
       </c>
     </row>
     <row r="255">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3.026117171150892</v>
+        <v>3.057119699465661</v>
       </c>
     </row>
     <row r="256">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Drew Timme</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.015915982898812</v>
+        <v>3.055846210945108</v>
       </c>
     </row>
     <row r="257">
@@ -3771,11 +3771,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.009707362269144</v>
+        <v>3.049167346726346</v>
       </c>
     </row>
     <row r="258">
@@ -3784,11 +3784,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2.998992870225756</v>
+        <v>3.042466654888294</v>
       </c>
     </row>
     <row r="259">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.998615493277399</v>
+        <v>3.036558724159879</v>
       </c>
     </row>
     <row r="260">
@@ -3810,11 +3810,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2.998589269174395</v>
+        <v>3.036056488076821</v>
       </c>
     </row>
     <row r="261">
@@ -3823,11 +3823,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2.993340042188315</v>
+        <v>3.032347047452238</v>
       </c>
     </row>
     <row r="262">
@@ -3836,11 +3836,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Karlo Matković</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2.992013717939357</v>
+        <v>3.025091235132621</v>
       </c>
     </row>
     <row r="263">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2.986852228692497</v>
+        <v>3.024892605896914</v>
       </c>
     </row>
     <row r="264">
@@ -3862,11 +3862,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2.983856103097142</v>
+        <v>3.018656414128883</v>
       </c>
     </row>
     <row r="265">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2.983592441800693</v>
+        <v>3.009830855699886</v>
       </c>
     </row>
     <row r="266">
@@ -3888,11 +3888,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2.983440535153997</v>
+        <v>3.009776856983606</v>
       </c>
     </row>
     <row r="267">
@@ -3901,11 +3901,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2.982636783835175</v>
+        <v>2.998005034285052</v>
       </c>
     </row>
     <row r="268">
@@ -3914,11 +3914,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Justin Edwards</t>
+          <t>Karlo Matković</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2.978583115800089</v>
+        <v>2.992562848145012</v>
       </c>
     </row>
     <row r="269">
@@ -3927,11 +3927,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Vit Krejci</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2.976647715635943</v>
+        <v>2.99102049909394</v>
       </c>
     </row>
     <row r="270">
@@ -3940,11 +3940,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2.976099301288659</v>
+        <v>2.989109017815458</v>
       </c>
     </row>
     <row r="271">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.971224943596081</v>
+        <v>2.988761954397837</v>
       </c>
     </row>
     <row r="272">
@@ -3966,11 +3966,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2.967058423840952</v>
+        <v>2.985929536622605</v>
       </c>
     </row>
     <row r="273">
@@ -3979,11 +3979,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Vit Krejci</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2.948686461074723</v>
+        <v>2.985043240373732</v>
       </c>
     </row>
     <row r="274">
@@ -3992,11 +3992,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2.947902123540622</v>
+        <v>2.983735288715521</v>
       </c>
     </row>
     <row r="275">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2.942507300569001</v>
+        <v>2.982934778091396</v>
       </c>
     </row>
     <row r="276">
@@ -4018,11 +4018,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Justin Edwards</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2.938951338676022</v>
+        <v>2.979244049516717</v>
       </c>
     </row>
     <row r="277">
@@ -4031,11 +4031,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2.932583531849816</v>
+        <v>2.968003866897162</v>
       </c>
     </row>
     <row r="278">
@@ -4044,11 +4044,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ron Holland</t>
+          <t>Johnny Juzang</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2.928051298735018</v>
+        <v>2.967877488512812</v>
       </c>
     </row>
     <row r="279">
@@ -4057,11 +4057,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Oscar Tshiebwe</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2.925344377262467</v>
+        <v>2.963807970961853</v>
       </c>
     </row>
     <row r="280">
@@ -4070,11 +4070,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Adem Bona</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2.919113500795372</v>
+        <v>2.9625023313537</v>
       </c>
     </row>
     <row r="281">
@@ -4083,11 +4083,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Adem Bona</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2.915987528038882</v>
+        <v>2.957025737350821</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2.914742153202796</v>
+        <v>2.951458491519926</v>
       </c>
     </row>
     <row r="283">
@@ -4109,11 +4109,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2.911917808205196</v>
+        <v>2.939612973321808</v>
       </c>
     </row>
     <row r="284">
@@ -4122,11 +4122,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Lonzo Ball</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.909774982735684</v>
+        <v>2.932080567247319</v>
       </c>
     </row>
     <row r="285">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Brandon Williams</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2.908313630283211</v>
+        <v>2.929835498574489</v>
       </c>
     </row>
     <row r="286">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Ron Holland</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2.907665391867977</v>
+        <v>2.929800050209597</v>
       </c>
     </row>
     <row r="287">
@@ -4161,11 +4161,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.903898235783315</v>
+        <v>2.929075426543308</v>
       </c>
     </row>
     <row r="288">
@@ -4174,11 +4174,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Lonzo Ball</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2.903044877213458</v>
+        <v>2.911167232483647</v>
       </c>
     </row>
     <row r="289">
@@ -4187,11 +4187,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tosan Evbuomwan</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2.897161716313581</v>
+        <v>2.908310117660084</v>
       </c>
     </row>
     <row r="290">
@@ -4200,11 +4200,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2.89300341366746</v>
+        <v>2.907068596781412</v>
       </c>
     </row>
     <row r="291">
@@ -4213,11 +4213,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ricky Council IV</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2.890440958929663</v>
+        <v>2.905748732801996</v>
       </c>
     </row>
     <row r="292">
@@ -4226,11 +4226,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2.882266418334431</v>
+        <v>2.897557171200333</v>
       </c>
     </row>
     <row r="293">
@@ -4239,11 +4239,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>A.J. Green</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2.881851174240412</v>
+        <v>2.897229057058151</v>
       </c>
     </row>
     <row r="294">
@@ -4252,11 +4252,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A.J. Green</t>
+          <t>Tosan Evbuomwan</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2.881356264041293</v>
+        <v>2.893509746979308</v>
       </c>
     </row>
     <row r="295">
@@ -4265,11 +4265,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Ricky Council IV</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2.876799004144166</v>
+        <v>2.89041866177925</v>
       </c>
     </row>
     <row r="296">
@@ -4278,11 +4278,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2.872785334140452</v>
+        <v>2.888851496804488</v>
       </c>
     </row>
     <row r="297">
@@ -4291,11 +4291,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Brandon Williams</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2.854988146402403</v>
+        <v>2.880160412892867</v>
       </c>
     </row>
     <row r="298">
@@ -4304,11 +4304,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.852218306014406</v>
+        <v>2.876954875920991</v>
       </c>
     </row>
     <row r="299">
@@ -4317,11 +4317,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ryan Dunn</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2.848113907113861</v>
+        <v>2.859753852403385</v>
       </c>
     </row>
     <row r="300">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2.847339105767168</v>
+        <v>2.85606586292783</v>
       </c>
     </row>
     <row r="301">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2.840470352328718</v>
+        <v>2.853443551425071</v>
       </c>
     </row>
     <row r="302">
@@ -4356,11 +4356,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2.832441486377056</v>
+        <v>2.851830286376711</v>
       </c>
     </row>
     <row r="303">
@@ -4369,11 +4369,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2.818737769865863</v>
+        <v>2.83624920234907</v>
       </c>
     </row>
     <row r="304">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2.813682694501487</v>
+        <v>2.820287255260347</v>
       </c>
     </row>
     <row r="305">
@@ -4395,11 +4395,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2.810350061946</v>
+        <v>2.819153708928569</v>
       </c>
     </row>
     <row r="306">
@@ -4408,11 +4408,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2.802820514226219</v>
+        <v>2.816448516967424</v>
       </c>
     </row>
     <row r="307">
@@ -4421,11 +4421,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2.802061856110534</v>
+        <v>2.815682728439377</v>
       </c>
     </row>
     <row r="308">
@@ -4434,11 +4434,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2.801474802902163</v>
+        <v>2.811478141051962</v>
       </c>
     </row>
     <row r="309">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2.796647839440429</v>
+        <v>2.803368766591179</v>
       </c>
     </row>
     <row r="310">
@@ -4460,11 +4460,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2.771750082400513</v>
+        <v>2.803222557627784</v>
       </c>
     </row>
     <row r="311">
@@ -4473,11 +4473,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>N'Faly Dante</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2.769532298541338</v>
+        <v>2.802565142369196</v>
       </c>
     </row>
     <row r="312">
@@ -4486,11 +4486,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Oscar Tshiebwe</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2.769323814539365</v>
+        <v>2.789509185934272</v>
       </c>
     </row>
     <row r="313">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2.761233314616004</v>
+        <v>2.776315221277661</v>
       </c>
     </row>
     <row r="314">
@@ -4512,11 +4512,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2.749850560515458</v>
+        <v>2.771401248838911</v>
       </c>
     </row>
     <row r="315">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Alondes Williams</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2.728311007353036</v>
+        <v>2.754194003348307</v>
       </c>
     </row>
     <row r="316">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Dean Wade</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2.726506504917219</v>
+        <v>2.743630053180145</v>
       </c>
     </row>
     <row r="317">
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2.713736864366505</v>
+        <v>2.736474682640784</v>
       </c>
     </row>
     <row r="318">
@@ -4564,11 +4564,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Alondes Williams</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2.711220227387481</v>
+        <v>2.735632422169251</v>
       </c>
     </row>
     <row r="319">
@@ -4577,11 +4577,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Dean Wade</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2.70728845589044</v>
+        <v>2.727512682087751</v>
       </c>
     </row>
     <row r="320">
@@ -4590,11 +4590,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2.697301669587418</v>
+        <v>2.716520346357346</v>
       </c>
     </row>
     <row r="321">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2.696376867317304</v>
+        <v>2.711059199533279</v>
       </c>
     </row>
     <row r="322">
@@ -4616,11 +4616,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2.694368984986672</v>
+        <v>2.710056414008831</v>
       </c>
     </row>
     <row r="323">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2.694234893412173</v>
+        <v>2.697219297136031</v>
       </c>
     </row>
     <row r="324">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>KJ Simpson</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2.686303291228736</v>
+        <v>2.691715989359149</v>
       </c>
     </row>
     <row r="325">
@@ -4655,11 +4655,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Keion Brooks Jr.</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2.683457242816334</v>
+        <v>2.682743724319204</v>
       </c>
     </row>
     <row r="326">
@@ -4668,11 +4668,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2.679151979481865</v>
+        <v>2.681227797714512</v>
       </c>
     </row>
     <row r="327">
@@ -4681,11 +4681,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2.674110268519855</v>
+        <v>2.677614335367275</v>
       </c>
     </row>
     <row r="328">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Isaiah Mobley</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2.665989242464231</v>
+        <v>2.674159338553057</v>
       </c>
     </row>
     <row r="329">
@@ -4707,11 +4707,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2.647494745094109</v>
+        <v>2.671594442854135</v>
       </c>
     </row>
     <row r="330">
@@ -4720,11 +4720,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>KJ Simpson</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2.644913936198525</v>
+        <v>2.670137296282272</v>
       </c>
     </row>
     <row r="331">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Jeff Dowtin</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2.638515238101546</v>
+        <v>2.669981450334133</v>
       </c>
     </row>
     <row r="332">
@@ -4746,11 +4746,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2.63603905191498</v>
+        <v>2.668817683102022</v>
       </c>
     </row>
     <row r="333">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2.628722294293732</v>
+        <v>2.667084474194796</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2.628396196603174</v>
+        <v>2.656350663115582</v>
       </c>
     </row>
     <row r="335">
@@ -4785,11 +4785,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tidjane Salaün</t>
+          <t>A.J. Lawson</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2.624651209714399</v>
+        <v>2.649486866628632</v>
       </c>
     </row>
     <row r="336">
@@ -4798,11 +4798,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>A.J. Lawson</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2.62102064039315</v>
+        <v>2.649362081440177</v>
       </c>
     </row>
     <row r="337">
@@ -4811,11 +4811,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Jeff Dowtin</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2.619637224779487</v>
+        <v>2.64013708993979</v>
       </c>
     </row>
     <row r="338">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2.616891485105188</v>
+        <v>2.637444337014331</v>
       </c>
     </row>
     <row r="339">
@@ -4837,11 +4837,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Keion Brooks Jr.</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2.612129686799737</v>
+        <v>2.633891661560952</v>
       </c>
     </row>
     <row r="340">
@@ -4850,11 +4850,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Tidjane Salaün</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2.611368386825337</v>
+        <v>2.614589139119381</v>
       </c>
     </row>
     <row r="341">
@@ -4863,11 +4863,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2.606761242445382</v>
+        <v>2.607457680022909</v>
       </c>
     </row>
     <row r="342">
@@ -4876,11 +4876,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2.592274168592172</v>
+        <v>2.604545416865496</v>
       </c>
     </row>
     <row r="343">
@@ -4889,11 +4889,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Collin Gillespie</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2.573844528355567</v>
+        <v>2.597716138326898</v>
       </c>
     </row>
     <row r="344">
@@ -4902,11 +4902,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2.564871507925004</v>
+        <v>2.589185613387501</v>
       </c>
     </row>
     <row r="345">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>N'Faly Dante</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2.557060298370217</v>
+        <v>2.587643280688474</v>
       </c>
     </row>
     <row r="346">
@@ -4928,11 +4928,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2.552959383173469</v>
+        <v>2.581776566828945</v>
       </c>
     </row>
     <row r="347">
@@ -4941,11 +4941,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Oso Ighodaro</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2.549819556926237</v>
+        <v>2.580078601743172</v>
       </c>
     </row>
     <row r="348">
@@ -4954,11 +4954,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Oso Ighodaro</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2.548079637216189</v>
+        <v>2.579264364679805</v>
       </c>
     </row>
     <row r="349">
@@ -4967,11 +4967,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Collin Gillespie</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2.542830165961727</v>
+        <v>2.575966796738309</v>
       </c>
     </row>
     <row r="350">
@@ -4980,11 +4980,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2.541497929249119</v>
+        <v>2.574686348258392</v>
       </c>
     </row>
     <row r="351">
@@ -4993,11 +4993,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2.538455668453441</v>
+        <v>2.563592777182271</v>
       </c>
     </row>
     <row r="352">
@@ -5006,11 +5006,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Marcus Bagley</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2.538197865268959</v>
+        <v>2.551121674028084</v>
       </c>
     </row>
     <row r="353">
@@ -5019,11 +5019,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Jared Rhoden</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2.532056663266935</v>
+        <v>2.543282472746294</v>
       </c>
     </row>
     <row r="354">
@@ -5032,11 +5032,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Dalen Terry</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.53033677483678</v>
+        <v>2.54029178424654</v>
       </c>
     </row>
     <row r="355">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Ajay Mitchell</t>
+          <t>Dalen Terry</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2.501205838778533</v>
+        <v>2.539814112005661</v>
       </c>
     </row>
     <row r="356">
@@ -5058,11 +5058,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Jared Rhoden</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2.496539194356004</v>
+        <v>2.537318511915156</v>
       </c>
     </row>
     <row r="357">
@@ -5071,11 +5071,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.48853864886752</v>
+        <v>2.515551552441792</v>
       </c>
     </row>
     <row r="358">
@@ -5084,11 +5084,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>KJ Martin</t>
+          <t>Ajay Mitchell</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.484524177767088</v>
+        <v>2.500513636290809</v>
       </c>
     </row>
     <row r="359">
@@ -5097,11 +5097,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Moses Brown</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.481844291124248</v>
+        <v>2.49116646809681</v>
       </c>
     </row>
     <row r="360">
@@ -5110,11 +5110,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Chuma Okeke</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.480446913699514</v>
+        <v>2.488611290616753</v>
       </c>
     </row>
     <row r="361">
@@ -5123,11 +5123,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Moses Brown</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.477319829069247</v>
+        <v>2.488566825694708</v>
       </c>
     </row>
     <row r="362">
@@ -5136,11 +5136,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>KJ Martin</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2.469492317496762</v>
+        <v>2.48340100516524</v>
       </c>
     </row>
     <row r="363">
@@ -5149,11 +5149,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Vasilije Micić</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2.4595793433035</v>
+        <v>2.483225871440348</v>
       </c>
     </row>
     <row r="364">
@@ -5162,11 +5162,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DaQuan Jeffries</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2.443110767801858</v>
+        <v>2.476547615530546</v>
       </c>
     </row>
     <row r="365">
@@ -5175,11 +5175,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Damion Baugh</t>
+          <t>Jordan Goodwin</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.436337945986495</v>
+        <v>2.471355869305</v>
       </c>
     </row>
     <row r="366">
@@ -5188,11 +5188,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>DaQuan Jeffries</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2.430171875984644</v>
+        <v>2.471208621430083</v>
       </c>
     </row>
     <row r="367">
@@ -5201,11 +5201,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2.429521891660579</v>
+        <v>2.467486760806551</v>
       </c>
     </row>
     <row r="368">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Jordan Goodwin</t>
+          <t>Damion Baugh</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2.428484382331223</v>
+        <v>2.465062227223962</v>
       </c>
     </row>
     <row r="369">
@@ -5227,11 +5227,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Vasilije Micić</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2.427908959323299</v>
+        <v>2.46165969839315</v>
       </c>
     </row>
     <row r="370">
@@ -5240,11 +5240,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>GG Jackson II</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2.424731744648787</v>
+        <v>2.43591918701002</v>
       </c>
     </row>
     <row r="371">
@@ -5253,11 +5253,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Antonio Reeves</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2.411936754977663</v>
+        <v>2.435501533868815</v>
       </c>
     </row>
     <row r="372">
@@ -5266,11 +5266,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2.411381425057692</v>
+        <v>2.434779977259411</v>
       </c>
     </row>
     <row r="373">
@@ -5279,11 +5279,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2.395261589802198</v>
+        <v>2.431089908599758</v>
       </c>
     </row>
     <row r="374">
@@ -5292,11 +5292,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2.389538570090789</v>
+        <v>2.430553300923843</v>
       </c>
     </row>
     <row r="375">
@@ -5305,11 +5305,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Andre Jackson Jr.</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2.387876270549047</v>
+        <v>2.429036216784113</v>
       </c>
     </row>
     <row r="376">
@@ -5318,11 +5318,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Antonio Reeves</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2.387497412280548</v>
+        <v>2.426144700339024</v>
       </c>
     </row>
     <row r="377">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Marcus Bagley</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2.386563104280028</v>
+        <v>2.41135748417579</v>
       </c>
     </row>
     <row r="378">
@@ -5344,11 +5344,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2.376193725323502</v>
+        <v>2.410360759783751</v>
       </c>
     </row>
     <row r="379">
@@ -5357,11 +5357,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>GG Jackson II</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2.363039646151845</v>
+        <v>2.410288409408329</v>
       </c>
     </row>
     <row r="380">
@@ -5370,11 +5370,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Oshae Brissett</t>
+          <t>Chuma Okeke</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2.353309436364288</v>
+        <v>2.406044564039119</v>
       </c>
     </row>
     <row r="381">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2.351203885735582</v>
+        <v>2.405557732068736</v>
       </c>
     </row>
     <row r="382">
@@ -5396,11 +5396,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2.343815747781942</v>
+        <v>2.398628755247001</v>
       </c>
     </row>
     <row r="383">
@@ -5409,11 +5409,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>AJ Johnson</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.328182997393743</v>
+        <v>2.38256362079147</v>
       </c>
     </row>
     <row r="384">
@@ -5422,11 +5422,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Pelle Larsson</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2.32092429454698</v>
+        <v>2.361493940708629</v>
       </c>
     </row>
     <row r="385">
@@ -5435,11 +5435,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>AJ Johnson</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2.317440699069401</v>
+        <v>2.360156933907496</v>
       </c>
     </row>
     <row r="386">
@@ -5448,11 +5448,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Oshae Brissett</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.297411090885593</v>
+        <v>2.358335687853887</v>
       </c>
     </row>
     <row r="387">
@@ -5461,11 +5461,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2.293497647228566</v>
+        <v>2.34592008314495</v>
       </c>
     </row>
     <row r="388">
@@ -5474,11 +5474,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Keaton Wallace</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.290845820179825</v>
+        <v>2.341219464286942</v>
       </c>
     </row>
     <row r="389">
@@ -5487,11 +5487,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Blake Wesley</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2.287244940569353</v>
+        <v>2.323599091256791</v>
       </c>
     </row>
     <row r="390">
@@ -5500,11 +5500,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Craig Porter Jr.</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2.282529311494665</v>
+        <v>2.322538976374642</v>
       </c>
     </row>
     <row r="391">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2.279145968867895</v>
+        <v>2.32028656698429</v>
       </c>
     </row>
     <row r="392">
@@ -5526,11 +5526,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Blake Wesley</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2.274730240965201</v>
+        <v>2.31365250031615</v>
       </c>
     </row>
     <row r="393">
@@ -5539,11 +5539,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2.272790005114728</v>
+        <v>2.305229415974312</v>
       </c>
     </row>
     <row r="394">
@@ -5552,11 +5552,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Duop Reath</t>
+          <t>Nae'Qwan Tomlin</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2.265708827656884</v>
+        <v>2.29529928206369</v>
       </c>
     </row>
     <row r="395">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2.261823582383789</v>
+        <v>2.291371289490778</v>
       </c>
     </row>
     <row r="396">
@@ -5578,11 +5578,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2.259396589956897</v>
+        <v>2.289942906601171</v>
       </c>
     </row>
     <row r="397">
@@ -5591,11 +5591,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Colin Castleton</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2.257718982513908</v>
+        <v>2.288388009092275</v>
       </c>
     </row>
     <row r="398">
@@ -5604,11 +5604,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Marcus Garrett</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2.257391085582859</v>
+        <v>2.287480869997957</v>
       </c>
     </row>
     <row r="399">
@@ -5617,11 +5617,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2.251438403840142</v>
+        <v>2.282008133377095</v>
       </c>
     </row>
     <row r="400">
@@ -5630,11 +5630,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2.231903197293737</v>
+        <v>2.281384883643497</v>
       </c>
     </row>
     <row r="401">
@@ -5643,11 +5643,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Colin Castleton</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2.23187177265638</v>
+        <v>2.280837162963406</v>
       </c>
     </row>
     <row r="402">
@@ -5656,11 +5656,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2.230690386397171</v>
+        <v>2.278631720508051</v>
       </c>
     </row>
     <row r="403">
@@ -5669,11 +5669,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2.228401677618374</v>
+        <v>2.266366806066513</v>
       </c>
     </row>
     <row r="404">
@@ -5682,11 +5682,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>David Roddy</t>
+          <t>Duop Reath</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2.218020638265001</v>
+        <v>2.266164139556587</v>
       </c>
     </row>
     <row r="405">
@@ -5695,11 +5695,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Marcus Garrett</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2.217784230527072</v>
+        <v>2.263504695911315</v>
       </c>
     </row>
     <row r="406">
@@ -5708,11 +5708,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Keaton Wallace</t>
+          <t>Jamal Cain</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2.214767484789509</v>
+        <v>2.254694134479738</v>
       </c>
     </row>
     <row r="407">
@@ -5721,11 +5721,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Jamal Cain</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2.213462427292538</v>
+        <v>2.25200737286433</v>
       </c>
     </row>
     <row r="408">
@@ -5734,11 +5734,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Micah Potter</t>
+          <t>Caleb Houstan</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2.2105897406766</v>
+        <v>2.235301098671898</v>
       </c>
     </row>
     <row r="409">
@@ -5747,11 +5747,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2.207203627467865</v>
+        <v>2.234521733579248</v>
       </c>
     </row>
     <row r="410">
@@ -5760,11 +5760,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Micah Potter</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2.206617843856303</v>
+        <v>2.233307020817713</v>
       </c>
     </row>
     <row r="411">
@@ -5773,11 +5773,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Caleb Houstan</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.203784853044265</v>
+        <v>2.232802531493122</v>
       </c>
     </row>
     <row r="412">
@@ -5786,11 +5786,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2.198650230415878</v>
+        <v>2.227748297475451</v>
       </c>
     </row>
     <row r="413">
@@ -5799,11 +5799,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>David Roddy</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2.1955520032693</v>
+        <v>2.222036185263404</v>
       </c>
     </row>
     <row r="414">
@@ -5812,11 +5812,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Isaiah Wong</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.178448930752887</v>
+        <v>2.219961658654752</v>
       </c>
     </row>
     <row r="415">
@@ -5825,11 +5825,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2.169132422130314</v>
+        <v>2.218461644272398</v>
       </c>
     </row>
     <row r="416">
@@ -5838,11 +5838,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2.16774221315036</v>
+        <v>2.216058160943728</v>
       </c>
     </row>
     <row r="417">
@@ -5851,11 +5851,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Alex Reese</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2.166722589034717</v>
+        <v>2.212170350786542</v>
       </c>
     </row>
     <row r="418">
@@ -5864,11 +5864,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2.151690614326656</v>
+        <v>2.205110054963555</v>
       </c>
     </row>
     <row r="419">
@@ -5877,11 +5877,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Dominick Barlow</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2.149828199783403</v>
+        <v>2.196871436300688</v>
       </c>
     </row>
     <row r="420">
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2.147594785902365</v>
+        <v>2.195680539444579</v>
       </c>
     </row>
     <row r="421">
@@ -5903,11 +5903,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Colby Jones</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2.137847829405177</v>
+        <v>2.192073826276382</v>
       </c>
     </row>
     <row r="422">
@@ -5916,11 +5916,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ousmane Dieng</t>
+          <t>Daeqwon Plowden</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2.135022472645156</v>
+        <v>2.19173502377263</v>
       </c>
     </row>
     <row r="423">
@@ -5929,11 +5929,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Branden Carlson</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2.132301924335485</v>
+        <v>2.190044439772477</v>
       </c>
     </row>
     <row r="424">
@@ -5942,11 +5942,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Dominick Barlow</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2.132125659178751</v>
+        <v>2.189543806981465</v>
       </c>
     </row>
     <row r="425">
@@ -5955,11 +5955,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Jaylon Tyson</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.129999207147981</v>
+        <v>2.187170761303983</v>
       </c>
     </row>
     <row r="426">
@@ -5968,11 +5968,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Colby Jones</t>
+          <t>Isaiah Wong</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2.127215503463997</v>
+        <v>2.183834573048758</v>
       </c>
     </row>
     <row r="427">
@@ -5981,11 +5981,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tyson Etienne</t>
+          <t>Alex Reese</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2.111688357967684</v>
+        <v>2.169571475777011</v>
       </c>
     </row>
     <row r="428">
@@ -5994,11 +5994,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Isaac Jones</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2.109151824179058</v>
+        <v>2.164039074305287</v>
       </c>
     </row>
     <row r="429">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Jaylen Clark</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2.103833385222354</v>
+        <v>2.158089830975073</v>
       </c>
     </row>
     <row r="430">
@@ -6020,11 +6020,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Lester Quiñones</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2.100129865786033</v>
+        <v>2.155578443861253</v>
       </c>
     </row>
     <row r="431">
@@ -6033,11 +6033,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Ousmane Dieng</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2.095700250168358</v>
+        <v>2.137264395181457</v>
       </c>
     </row>
     <row r="432">
@@ -6046,11 +6046,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2.089876489030075</v>
+        <v>2.13515133850363</v>
       </c>
     </row>
     <row r="433">
@@ -6059,11 +6059,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Isaac Jones</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2.089163224533156</v>
+        <v>2.131025317489097</v>
       </c>
     </row>
     <row r="434">
@@ -6072,11 +6072,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.0683421389384</v>
+        <v>2.110472921977732</v>
       </c>
     </row>
     <row r="435">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Daeqwon Plowden</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2.066167916056852</v>
+        <v>2.11035037911408</v>
       </c>
     </row>
     <row r="436">
@@ -6098,11 +6098,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2.058377807517279</v>
+        <v>2.104359236083812</v>
       </c>
     </row>
     <row r="437">
@@ -6111,11 +6111,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Jaylon Tyson</t>
+          <t>Jaylen Sims</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2.051709053568587</v>
+        <v>2.099612930460642</v>
       </c>
     </row>
     <row r="438">
@@ -6124,11 +6124,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Dariq Whitehead</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2.047100295943355</v>
+        <v>2.097662806678697</v>
       </c>
     </row>
     <row r="439">
@@ -6137,11 +6137,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2.044037595573195</v>
+        <v>2.093781580387655</v>
       </c>
     </row>
     <row r="440">
@@ -6150,11 +6150,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Branden Carlson</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2.037326162621397</v>
+        <v>2.092264926380532</v>
       </c>
     </row>
     <row r="441">
@@ -6163,11 +6163,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Kobe Bufkin</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.036685030680943</v>
+        <v>2.072248409177853</v>
       </c>
     </row>
     <row r="442">
@@ -6176,11 +6176,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2.033938414472878</v>
+        <v>2.060816151554882</v>
       </c>
     </row>
     <row r="443">
@@ -6189,11 +6189,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Lester Quiñones</t>
+          <t>Dillon Jones</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2.03096842648266</v>
+        <v>2.052927131579181</v>
       </c>
     </row>
     <row r="444">
@@ -6202,11 +6202,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2.013609653774437</v>
+        <v>2.05223724475521</v>
       </c>
     </row>
     <row r="445">
@@ -6215,11 +6215,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Cam Spencer</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2.011883127185583</v>
+        <v>2.051319222025314</v>
       </c>
     </row>
     <row r="446">
@@ -6228,11 +6228,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Dillon Jones</t>
+          <t>Dariq Whitehead</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2.000645634421565</v>
+        <v>2.049619588337983</v>
       </c>
     </row>
     <row r="447">
@@ -6241,11 +6241,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Jaylen Martin</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1.987678315986924</v>
+        <v>2.043585101285709</v>
       </c>
     </row>
     <row r="448">
@@ -6254,11 +6254,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>Kobe Bufkin</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1.980598491432166</v>
+        <v>2.042816626214419</v>
       </c>
     </row>
     <row r="449">
@@ -6267,11 +6267,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Baylor Scheierman</t>
+          <t>Tyson Etienne</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1.980576719794692</v>
+        <v>2.039071636018543</v>
       </c>
     </row>
     <row r="450">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jaylen Sims</t>
+          <t>Ron Harper Jr.</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1.96427800110855</v>
+        <v>2.038762473963021</v>
       </c>
     </row>
     <row r="451">
@@ -6293,11 +6293,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Christian Koloko</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1.963744180704195</v>
+        <v>2.036077737465616</v>
       </c>
     </row>
     <row r="452">
@@ -6306,11 +6306,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1.959816712863544</v>
+        <v>2.016523341940719</v>
       </c>
     </row>
     <row r="453">
@@ -6319,11 +6319,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.959382360329621</v>
+        <v>1.993584976709155</v>
       </c>
     </row>
     <row r="454">
@@ -6332,11 +6332,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Hunter Tyson</t>
+          <t>Christian Koloko</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1.952230326988485</v>
+        <v>1.993410253870904</v>
       </c>
     </row>
     <row r="455">
@@ -6345,11 +6345,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>Baylor Scheierman</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1.942585020094681</v>
+        <v>1.99195304354749</v>
       </c>
     </row>
     <row r="456">
@@ -6358,11 +6358,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Jaylen Martin</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1.938281654469234</v>
+        <v>1.991359033064004</v>
       </c>
     </row>
     <row r="457">
@@ -6371,11 +6371,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Lamar Stevens</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1.936652575484444</v>
+        <v>1.988274937545291</v>
       </c>
     </row>
     <row r="458">
@@ -6384,11 +6384,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1.923845095300365</v>
+        <v>1.983186555531208</v>
       </c>
     </row>
     <row r="459">
@@ -6397,11 +6397,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1.905476329857573</v>
+        <v>1.954175273381789</v>
       </c>
     </row>
     <row r="460">
@@ -6410,11 +6410,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Cam Spencer</t>
+          <t>Keshad Johnson</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1.899268909263412</v>
+        <v>1.953589944164261</v>
       </c>
     </row>
     <row r="461">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nae'Qwan Tomlin</t>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1.896716446982443</v>
+        <v>1.95279781811522</v>
       </c>
     </row>
     <row r="462">
@@ -6436,11 +6436,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>MarJon Beauchamp</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1.895181489162687</v>
+        <v>1.950290425806724</v>
       </c>
     </row>
     <row r="463">
@@ -6449,11 +6449,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1.894407929624534</v>
+        <v>1.949593364136303</v>
       </c>
     </row>
     <row r="464">
@@ -6462,11 +6462,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.891669024884979</v>
+        <v>1.936618150446707</v>
       </c>
     </row>
     <row r="465">
@@ -6475,11 +6475,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1.885356466549552</v>
+        <v>1.933748456247348</v>
       </c>
     </row>
     <row r="466">
@@ -6488,11 +6488,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Kevin Knox</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1.884407602683043</v>
+        <v>1.930064514071454</v>
       </c>
     </row>
     <row r="467">
@@ -6501,11 +6501,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1.880866129990455</v>
+        <v>1.927834371707718</v>
       </c>
     </row>
     <row r="468">
@@ -6514,11 +6514,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1.865482596846535</v>
+        <v>1.922864943472824</v>
       </c>
     </row>
     <row r="469">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Cole Swider</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1.863902844522904</v>
+        <v>1.92030285012991</v>
       </c>
     </row>
     <row r="470">
@@ -6540,11 +6540,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1.860283794172996</v>
+        <v>1.914438752598828</v>
       </c>
     </row>
     <row r="471">
@@ -6553,11 +6553,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1.853382883968326</v>
+        <v>1.901244265677482</v>
       </c>
     </row>
     <row r="472">
@@ -6566,11 +6566,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Reece Beekman</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1.843171736773244</v>
+        <v>1.89856473082477</v>
       </c>
     </row>
     <row r="473">
@@ -6579,11 +6579,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Jackson Rowe</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1.839590194205469</v>
+        <v>1.890642317658675</v>
       </c>
     </row>
     <row r="474">
@@ -6592,11 +6592,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Kevin Knox</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1.839176903591191</v>
+        <v>1.890410110429688</v>
       </c>
     </row>
     <row r="475">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1.834609055172549</v>
+        <v>1.884485474453026</v>
       </c>
     </row>
     <row r="476">
@@ -6618,11 +6618,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Patrick Baldwin Jr.</t>
+          <t>Dario Šarić</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1.833370744729623</v>
+        <v>1.869057505480984</v>
       </c>
     </row>
     <row r="477">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Cole Swider</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1.82581572583552</v>
+        <v>1.868588391340409</v>
       </c>
     </row>
     <row r="478">
@@ -6644,11 +6644,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>JT Thor</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1.823691355344195</v>
+        <v>1.868333032424453</v>
       </c>
     </row>
     <row r="479">
@@ -6657,11 +6657,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Taze Moore</t>
+          <t>Jamaree Bouyea</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1.803142852154564</v>
+        <v>1.856492264305722</v>
       </c>
     </row>
     <row r="480">
@@ -6670,11 +6670,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1.797172055687483</v>
+        <v>1.855391999167062</v>
       </c>
     </row>
     <row r="481">
@@ -6683,11 +6683,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Kylor Kelley</t>
+          <t>RayJ Dennis</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1.791124780695552</v>
+        <v>1.84662224528727</v>
       </c>
     </row>
     <row r="482">
@@ -6696,11 +6696,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Jackson Rowe</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1.784106646862198</v>
+        <v>1.844757523618577</v>
       </c>
     </row>
     <row r="483">
@@ -6709,11 +6709,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>Reece Beekman</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1.763723229864365</v>
+        <v>1.843350186965108</v>
       </c>
     </row>
     <row r="484">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>PJ Hall</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1.758524453700238</v>
+        <v>1.84314396379689</v>
       </c>
     </row>
     <row r="485">
@@ -6735,11 +6735,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1.753323859552851</v>
+        <v>1.836264244019883</v>
       </c>
     </row>
     <row r="486">
@@ -6748,11 +6748,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Johnny Davis</t>
+          <t>Kylor Kelley</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1.744851187498455</v>
+        <v>1.833348710706219</v>
       </c>
     </row>
     <row r="487">
@@ -6761,11 +6761,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1.733847368491494</v>
+        <v>1.825935627202309</v>
       </c>
     </row>
     <row r="488">
@@ -6774,11 +6774,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>JT Thor</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1.730690970795248</v>
+        <v>1.825902744361106</v>
       </c>
     </row>
     <row r="489">
@@ -6787,11 +6787,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Chris Duarte</t>
+          <t>Taze Moore</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1.725692815509947</v>
+        <v>1.812354181731886</v>
       </c>
     </row>
     <row r="490">
@@ -6800,11 +6800,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Drew Peterson</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1.716705554150504</v>
+        <v>1.791922360107566</v>
       </c>
     </row>
     <row r="491">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1.690731791011962</v>
+        <v>1.778695764992151</v>
       </c>
     </row>
     <row r="492">
@@ -6826,11 +6826,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Lamar Stevens</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>1.683508664888151</v>
+        <v>1.777525809981593</v>
       </c>
     </row>
     <row r="493">
@@ -6839,11 +6839,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Bronny James</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1.680154620193179</v>
+        <v>1.773123455160446</v>
       </c>
     </row>
     <row r="494">
@@ -6852,11 +6852,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>PJ Hall</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1.678251795305243</v>
+        <v>1.762513953967284</v>
       </c>
     </row>
     <row r="495">
@@ -6865,11 +6865,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Keshad Johnson</t>
+          <t>Jordan Walsh</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1.676263292272572</v>
+        <v>1.748607001110404</v>
       </c>
     </row>
     <row r="496">
@@ -6878,11 +6878,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1.667115008288093</v>
+        <v>1.746363882895319</v>
       </c>
     </row>
     <row r="497">
@@ -6891,11 +6891,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Elijah Harkless</t>
+          <t>Ariel Hukporti</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1.640815286849514</v>
+        <v>1.731771089354495</v>
       </c>
     </row>
     <row r="498">
@@ -6904,11 +6904,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Chris Duarte</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1.639852310804053</v>
+        <v>1.729711590189531</v>
       </c>
     </row>
     <row r="499">
@@ -6917,11 +6917,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>David Duke Jr.</t>
+          <t>Drew Peterson</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1.627469325445695</v>
+        <v>1.725303912279844</v>
       </c>
     </row>
     <row r="500">
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1.602519377835625</v>
+        <v>1.719440480946725</v>
       </c>
     </row>
     <row r="501">
@@ -6943,11 +6943,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>E.J. Liddell</t>
+          <t>Emoni Bates</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1.595571758196747</v>
+        <v>1.707865639327339</v>
       </c>
     </row>
     <row r="502">
@@ -6956,11 +6956,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Miles Norris</t>
+          <t>Jahmir Young</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1.593165755201473</v>
+        <v>1.702187242520633</v>
       </c>
     </row>
     <row r="503">
@@ -6969,11 +6969,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Adam Flagler</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1.590219900382766</v>
+        <v>1.671124439900589</v>
       </c>
     </row>
     <row r="504">
@@ -6982,11 +6982,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RayJ Dennis</t>
+          <t>Bronny James</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1.587953395566838</v>
+        <v>1.670323067174439</v>
       </c>
     </row>
     <row r="505">
@@ -6995,11 +6995,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Jahmir Young</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1.5533133601313</v>
+        <v>1.644549162235837</v>
       </c>
     </row>
     <row r="506">
@@ -7008,11 +7008,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Adama Sanogo</t>
+          <t>Elijah Harkless</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1.51135421017579</v>
+        <v>1.643948976508416</v>
       </c>
     </row>
     <row r="507">
@@ -7021,11 +7021,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Alex Ducas</t>
+          <t>Pete Nance</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1.510013983401504</v>
+        <v>1.635490860261172</v>
       </c>
     </row>
     <row r="508">
@@ -7034,11 +7034,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1.497272411092134</v>
+        <v>1.634586928551804</v>
       </c>
     </row>
     <row r="509">
@@ -7047,11 +7047,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>David Duke Jr.</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1.495416031284514</v>
+        <v>1.634223781498283</v>
       </c>
     </row>
     <row r="510">
@@ -7060,11 +7060,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JD Davison</t>
+          <t>Josh Christopher</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1.493727236114942</v>
+        <v>1.627965956698352</v>
       </c>
     </row>
     <row r="511">
@@ -7073,11 +7073,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Jazian Gortman</t>
+          <t>JD Davison</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1.472313123457808</v>
+        <v>1.617978404282168</v>
       </c>
     </row>
     <row r="512">
@@ -7086,11 +7086,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Vlatko Čančar</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1.463250808138808</v>
+        <v>1.598083503419723</v>
       </c>
     </row>
     <row r="513">
@@ -7099,11 +7099,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Adam Flagler</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1.46271556186987</v>
+        <v>1.554798844934826</v>
       </c>
     </row>
     <row r="514">
@@ -7112,11 +7112,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Chris Livingston</t>
+          <t>E.J. Liddell</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1.46225735769294</v>
+        <v>1.53799414762338</v>
       </c>
     </row>
     <row r="515">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Alex Ducas</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1.44810417045534</v>
+        <v>1.536730102864584</v>
       </c>
     </row>
     <row r="516">
@@ -7138,11 +7138,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Emanuel Miller</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1.43419453322659</v>
+        <v>1.53423795341878</v>
       </c>
     </row>
     <row r="517">
@@ -7151,11 +7151,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1.428170080533257</v>
+        <v>1.52387726951777</v>
       </c>
     </row>
     <row r="518">
@@ -7164,11 +7164,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Chris Livingston</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1.426111254388326</v>
+        <v>1.522900284497563</v>
       </c>
     </row>
     <row r="519">
@@ -7177,11 +7177,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Skal Labissière</t>
+          <t>Adama Sanogo</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1.421106688185344</v>
+        <v>1.516480275039682</v>
       </c>
     </row>
     <row r="520">
@@ -7190,11 +7190,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Yuri Collins</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1.377514926161521</v>
+        <v>1.498564358149685</v>
       </c>
     </row>
     <row r="521">
@@ -7203,11 +7203,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1.358833172398333</v>
+        <v>1.497071898147615</v>
       </c>
     </row>
     <row r="522">
@@ -7216,11 +7216,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1.33381243502408</v>
+        <v>1.485999983483606</v>
       </c>
     </row>
     <row r="523">
@@ -7229,11 +7229,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>Jazian Gortman</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1.332920828266165</v>
+        <v>1.476425891675636</v>
       </c>
     </row>
     <row r="524">
@@ -7242,11 +7242,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Anton Watson</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1.318108010871468</v>
+        <v>1.472544068403865</v>
       </c>
     </row>
     <row r="525">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Bryce McGowens</t>
+          <t>Vlatko Čančar</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1.317064700451984</v>
+        <v>1.466902108051884</v>
       </c>
     </row>
     <row r="526">
@@ -7268,11 +7268,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1.305770437834764</v>
+        <v>1.439771160133116</v>
       </c>
     </row>
     <row r="527">
@@ -7281,11 +7281,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Trentyn Flowers</t>
+          <t>Miles Norris</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1.293954980843933</v>
+        <v>1.434372111813919</v>
       </c>
     </row>
     <row r="528">
@@ -7294,11 +7294,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Harrison Ingram</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1.285482554214003</v>
+        <v>1.431775704532466</v>
       </c>
     </row>
     <row r="529">
@@ -7307,11 +7307,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Skal Labissière</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1.284424347245381</v>
+        <v>1.425668441355198</v>
       </c>
     </row>
     <row r="530">
@@ -7320,11 +7320,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Jamaree Bouyea</t>
+          <t>Jacob Toppin</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1.283858212461427</v>
+        <v>1.425171571036262</v>
       </c>
     </row>
     <row r="531">
@@ -7333,11 +7333,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Isaiah Crawford</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1.281021162866796</v>
+        <v>1.398987820671151</v>
       </c>
     </row>
     <row r="532">
@@ -7346,11 +7346,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>Yuri Collins</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1.274339262856008</v>
+        <v>1.380060323853028</v>
       </c>
     </row>
     <row r="533">
@@ -7359,11 +7359,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Pete Nance</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1.269528829652551</v>
+        <v>1.335619133653175</v>
       </c>
     </row>
     <row r="534">
@@ -7372,11 +7372,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Armel Traoré</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1.268150449383439</v>
+        <v>1.325153853304306</v>
       </c>
     </row>
     <row r="535">
@@ -7385,11 +7385,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Emoni Bates</t>
+          <t>Bryce McGowens</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1.261500592041772</v>
+        <v>1.323090662775117</v>
       </c>
     </row>
     <row r="536">
@@ -7398,11 +7398,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Jack McVeigh</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1.239591419050073</v>
+        <v>1.308193443736939</v>
       </c>
     </row>
     <row r="537">
@@ -7411,11 +7411,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Braxton Key</t>
+          <t>Trentyn Flowers</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1.22459916019375</v>
+        <v>1.300815245339153</v>
       </c>
     </row>
     <row r="538">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Josh Christopher</t>
+          <t>Harrison Ingram</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1.22236140476307</v>
+        <v>1.287031764303016</v>
       </c>
     </row>
     <row r="539">
@@ -7437,11 +7437,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Stanley Umude</t>
+          <t>Kevin McCullar Jr.</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1.216527934355827</v>
+        <v>1.286798219945464</v>
       </c>
     </row>
     <row r="540">
@@ -7450,11 +7450,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Anton Watson</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1.182265059833708</v>
+        <v>1.284288224516189</v>
       </c>
     </row>
     <row r="541">
@@ -7463,11 +7463,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Phillip Wheeler</t>
+          <t>Isaiah Crawford</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1.179208067348408</v>
+        <v>1.283764241166458</v>
       </c>
     </row>
     <row r="542">
@@ -7476,11 +7476,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Emanuel Miller</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1.169857485466081</v>
+        <v>1.276147349447841</v>
       </c>
     </row>
     <row r="543">
@@ -7489,11 +7489,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Liam Robbins</t>
+          <t>Armel Traoré</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1.139774363964009</v>
+        <v>1.272850633407213</v>
       </c>
     </row>
     <row r="544">
@@ -7502,11 +7502,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Justin Minaya</t>
+          <t>Jack McVeigh</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1.123024739981378</v>
+        <v>1.244926453729638</v>
       </c>
     </row>
     <row r="545">
@@ -7515,11 +7515,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Braxton Key</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1.112873532978833</v>
+        <v>1.236432246260383</v>
       </c>
     </row>
     <row r="546">
@@ -7528,11 +7528,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Jalen Bridges</t>
+          <t>Justin Minaya</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1.10900114252196</v>
+        <v>1.219200230075221</v>
       </c>
     </row>
     <row r="547">
@@ -7541,11 +7541,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>Jalen Bridges</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1.107520520767319</v>
+        <v>1.199367293946685</v>
       </c>
     </row>
     <row r="548">
@@ -7554,11 +7554,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Luke Travers</t>
+          <t>Phillip Wheeler</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1.097626437547794</v>
+        <v>1.184716276665901</v>
       </c>
     </row>
     <row r="549">
@@ -7567,11 +7567,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1.084468586156299</v>
+        <v>1.184279469171625</v>
       </c>
     </row>
     <row r="550">
@@ -7580,11 +7580,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Quincy Olivari</t>
+          <t>Stanley Umude</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>1.081476034222228</v>
+        <v>1.180322467804963</v>
       </c>
     </row>
     <row r="551">
@@ -7593,11 +7593,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>League Average</t>
+          <t>Luke Travers</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1.066459102245324</v>
+        <v>1.179653864874963</v>
       </c>
     </row>
     <row r="552">
@@ -7606,11 +7606,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Cui Yongxi</t>
+          <t>Liam Robbins</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1.026695860934335</v>
+        <v>1.145077301929157</v>
       </c>
     </row>
     <row r="553">
@@ -7619,11 +7619,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tristen Newton</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1.02310940409242</v>
+        <v>1.115916226633662</v>
       </c>
     </row>
     <row r="554">
@@ -7632,11 +7632,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Jacob Toppin</t>
+          <t>Daniss Jenkins</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1.015906340830148</v>
+        <v>1.109656908053585</v>
       </c>
     </row>
     <row r="555">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Daishen Nix</t>
+          <t>Quincy Olivari</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0.9944825190422477</v>
+        <v>1.090511016395163</v>
       </c>
     </row>
     <row r="556">
@@ -7658,11 +7658,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>D.J. Carton</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.9661388540544289</v>
+        <v>1.087258223144357</v>
       </c>
     </row>
     <row r="557">
@@ -7671,11 +7671,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Kevin McCullar Jr.</t>
+          <t>League Average</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0.8175830546520637</v>
+        <v>1.073477728939912</v>
       </c>
     </row>
     <row r="558">
@@ -7684,11 +7684,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Malevy Leons</t>
+          <t>Cui Yongxi</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0.7452585558484092</v>
+        <v>1.038226334111631</v>
       </c>
     </row>
     <row r="559">
@@ -7697,11 +7697,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Isaiah Stevens</t>
+          <t>Tristen Newton</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0.6419977686688758</v>
+        <v>1.032091832508619</v>
       </c>
     </row>
     <row r="560">
@@ -7710,11 +7710,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Daishen Nix</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0.6118946679171379</v>
+        <v>1.001034000347501</v>
       </c>
     </row>
     <row r="561">
@@ -7723,11 +7723,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Terry Taylor</t>
+          <t>D.J. Carton</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0.6111108344802589</v>
+        <v>0.9707711461860378</v>
       </c>
     </row>
     <row r="562">
@@ -7736,11 +7736,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Jahlil Okafor</t>
+          <t>Malevy Leons</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0.5953145190391125</v>
+        <v>0.7479217521192271</v>
       </c>
     </row>
     <row r="563">
@@ -7749,11 +7749,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Isaiah Stevens</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.5117145780980628</v>
+        <v>0.6468563148920177</v>
       </c>
     </row>
     <row r="564">
@@ -7762,11 +7762,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0.4798222559823681</v>
+        <v>0.6147222214556635</v>
       </c>
     </row>
     <row r="565">
@@ -7775,11 +7775,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Terry Taylor</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0.4725274319245258</v>
+        <v>0.6132889001567238</v>
       </c>
     </row>
     <row r="566">
@@ -7788,11 +7788,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Zyon Pullin</t>
+          <t>Jahlil Okafor</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0.3785094427130408</v>
+        <v>0.5951940733902116</v>
       </c>
     </row>
     <row r="567">
@@ -7801,11 +7801,63 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
+          <t>Terence Davis</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0.5932570673577034</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>0.5137455707826789</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Jalen McDaniels</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0.4720456493289221</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Zyon Pullin</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0.3828742162039001</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
           <t>Jesse Edwards</t>
         </is>
       </c>
-      <c r="C567" t="n">
-        <v>0.3057426654086814</v>
+      <c r="C571" t="n">
+        <v>0.3055017741108796</v>
       </c>
     </row>
   </sheetData>

--- a/ranked_players.xlsx
+++ b/ranked_players.xlsx
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jeff Dowtin</t>
+          <t>Jeff Dowtin Jr.</t>
         </is>
       </c>
       <c r="C337" t="n">

--- a/ranked_players.xlsx
+++ b/ranked_players.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.098891572233441</v>
+        <v>7.09889157223344</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.233828934358403</v>
+        <v>6.233828934358401</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.086936174389221</v>
+        <v>6.086936174389224</v>
       </c>
     </row>
     <row r="10">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.924576647265784</v>
+        <v>5.924576647265786</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.565913387454899</v>
+        <v>5.5659133874549</v>
       </c>
     </row>
     <row r="19">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.555754604518879</v>
+        <v>5.555754604518878</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.512989783788605</v>
+        <v>5.512989783788603</v>
       </c>
     </row>
     <row r="22">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.472145385325657</v>
+        <v>5.472145385325656</v>
       </c>
     </row>
     <row r="24">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.364525752812463</v>
+        <v>5.364525752812462</v>
       </c>
     </row>
     <row r="27">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.328173683928732</v>
+        <v>5.328173683928733</v>
       </c>
     </row>
     <row r="29">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.292544069035512</v>
+        <v>5.292544069035513</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.280883572062889</v>
+        <v>5.280883572062888</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.261378985256923</v>
+        <v>5.261378985256924</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.193375032878276</v>
+        <v>5.193375032878277</v>
       </c>
     </row>
     <row r="36">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.135244912350528</v>
+        <v>5.135244912350529</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.066888854035263</v>
+        <v>5.066888854035262</v>
       </c>
     </row>
     <row r="44">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.927732000453152</v>
+        <v>4.927732000453153</v>
       </c>
     </row>
     <row r="52">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.70395001755988</v>
+        <v>4.703950017559879</v>
       </c>
     </row>
     <row r="63">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.657264936249884</v>
+        <v>4.657264936249885</v>
       </c>
     </row>
     <row r="65">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.615286112451729</v>
+        <v>4.61528611245173</v>
       </c>
     </row>
     <row r="69">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.537648866887325</v>
+        <v>4.537648866887326</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.529148693164232</v>
+        <v>4.529148693164231</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.470301425525825</v>
+        <v>4.470301425525826</v>
       </c>
     </row>
     <row r="77">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.437626409099299</v>
+        <v>4.437626409099298</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.437120034208006</v>
+        <v>4.437120034208007</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.434103685646993</v>
+        <v>4.434103685646992</v>
       </c>
     </row>
     <row r="83">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.394179713533773</v>
+        <v>4.394179713533774</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.363901975692978</v>
+        <v>4.363901975692979</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.349800716552077</v>
+        <v>4.349800716552076</v>
       </c>
     </row>
     <row r="89">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.257613452816482</v>
+        <v>4.257613452816483</v>
       </c>
     </row>
     <row r="94">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.136890546629922</v>
+        <v>4.136890546629921</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4.132411030482517</v>
+        <v>4.132411030482515</v>
       </c>
     </row>
     <row r="101">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.09056256161237</v>
+        <v>4.090562561612369</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.08520574231582</v>
+        <v>4.085205742315821</v>
       </c>
     </row>
     <row r="110">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.051447473075985</v>
+        <v>4.051447473075984</v>
       </c>
     </row>
     <row r="113">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4.026692428408428</v>
+        <v>4.026692428408427</v>
       </c>
     </row>
     <row r="118">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3.965904764917341</v>
+        <v>3.965904764917342</v>
       </c>
     </row>
     <row r="122">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.959750756143302</v>
+        <v>3.959750756143303</v>
       </c>
     </row>
     <row r="124">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.824648527142564</v>
+        <v>3.824648527142565</v>
       </c>
     </row>
     <row r="134">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.790377441404375</v>
+        <v>3.790377441404376</v>
       </c>
     </row>
     <row r="140">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.751595650233416</v>
+        <v>3.751595650233417</v>
       </c>
     </row>
     <row r="145">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3.537061816251393</v>
+        <v>3.537061816251392</v>
       </c>
     </row>
     <row r="171">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.521481451254267</v>
+        <v>3.521481451254268</v>
       </c>
     </row>
     <row r="174">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.495326001989773</v>
+        <v>3.495326001989772</v>
       </c>
     </row>
     <row r="178">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3.478474161226249</v>
+        <v>3.478474161226248</v>
       </c>
     </row>
     <row r="182">
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3.473579242001733</v>
+        <v>3.473579242001734</v>
       </c>
     </row>
     <row r="184">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3.430304683381625</v>
+        <v>3.430304683381626</v>
       </c>
     </row>
     <row r="189">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3.42886728819851</v>
+        <v>3.428867288198511</v>
       </c>
     </row>
     <row r="190">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.375649426719543</v>
+        <v>3.375649426719542</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3.375156798440196</v>
+        <v>3.375156798440197</v>
       </c>
     </row>
     <row r="198">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.307577594561247</v>
+        <v>3.307577594561246</v>
       </c>
     </row>
     <row r="213">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.27618874621971</v>
+        <v>3.276188746219709</v>
       </c>
     </row>
     <row r="217">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3.269608731840827</v>
+        <v>3.269608731840828</v>
       </c>
     </row>
     <row r="219">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.244225082554392</v>
+        <v>3.244225082554393</v>
       </c>
     </row>
     <row r="225">
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.241668429315885</v>
+        <v>3.241668429315886</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3.230416453223056</v>
+        <v>3.230416453223055</v>
       </c>
     </row>
     <row r="227">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.143244547684342</v>
+        <v>3.143244547684341</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.143095047632652</v>
+        <v>3.143095047632653</v>
       </c>
     </row>
     <row r="241">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3.136404394335193</v>
+        <v>3.136404394335194</v>
       </c>
     </row>
     <row r="243">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3.132674604859595</v>
+        <v>3.132674604859594</v>
       </c>
     </row>
     <row r="245">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3.130575079121082</v>
+        <v>3.130575079121081</v>
       </c>
     </row>
     <row r="247">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.062717522274882</v>
+        <v>3.062717522274881</v>
       </c>
     </row>
     <row r="255">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.049167346726346</v>
+        <v>3.049167346726347</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3.042466654888294</v>
+        <v>3.042466654888295</v>
       </c>
     </row>
     <row r="259">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3.025091235132621</v>
+        <v>3.02509123513262</v>
       </c>
     </row>
     <row r="263">
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2.992562848145012</v>
+        <v>2.992562848145013</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.929075426543308</v>
+        <v>2.929075426543307</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2.911167232483647</v>
+        <v>2.911167232483646</v>
       </c>
     </row>
     <row r="289">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2.907068596781412</v>
+        <v>2.907068596781413</v>
       </c>
     </row>
     <row r="291">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.876954875920991</v>
+        <v>2.876954875920992</v>
       </c>
     </row>
     <row r="299">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2.853443551425071</v>
+        <v>2.853443551425072</v>
       </c>
     </row>
     <row r="302">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2.819153708928569</v>
+        <v>2.819153708928568</v>
       </c>
     </row>
     <row r="306">
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2.803368766591179</v>
+        <v>2.803368766591178</v>
       </c>
     </row>
     <row r="310">
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2.789509185934272</v>
+        <v>2.789509185934271</v>
       </c>
     </row>
     <row r="313">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2.743630053180145</v>
+        <v>2.743630053180144</v>
       </c>
     </row>
     <row r="317">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2.710056414008831</v>
+        <v>2.710056414008832</v>
       </c>
     </row>
     <row r="323">
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2.677614335367275</v>
+        <v>2.677614335367276</v>
       </c>
     </row>
     <row r="328">
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2.671594442854135</v>
+        <v>2.671594442854136</v>
       </c>
     </row>
     <row r="330">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2.64013708993979</v>
+        <v>2.640137089939791</v>
       </c>
     </row>
     <row r="338">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2.633891661560952</v>
+        <v>2.633891661560951</v>
       </c>
     </row>
     <row r="340">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2.581776566828945</v>
+        <v>2.581776566828946</v>
       </c>
     </row>
     <row r="347">
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2.551121674028084</v>
+        <v>2.551121674028085</v>
       </c>
     </row>
     <row r="353">
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.515551552441792</v>
+        <v>2.515551552441791</v>
       </c>
     </row>
     <row r="358">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.488566825694708</v>
+        <v>2.488566825694707</v>
       </c>
     </row>
     <row r="362">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2.435501533868815</v>
+        <v>2.435501533868814</v>
       </c>
     </row>
     <row r="372">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2.410360759783751</v>
+        <v>2.410360759783752</v>
       </c>
     </row>
     <row r="379">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2.405557732068736</v>
+        <v>2.405557732068735</v>
       </c>
     </row>
     <row r="382">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2.323599091256791</v>
+        <v>2.32359909125679</v>
       </c>
     </row>
     <row r="390">
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2.288388009092275</v>
+        <v>2.288388009092274</v>
       </c>
     </row>
     <row r="398">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2.287480869997957</v>
+        <v>2.287480869997958</v>
       </c>
     </row>
     <row r="399">
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2.281384883643497</v>
+        <v>2.281384883643496</v>
       </c>
     </row>
     <row r="401">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.219961658654752</v>
+        <v>2.219961658654751</v>
       </c>
     </row>
     <row r="415">
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2.205110054963555</v>
+        <v>2.205110054963554</v>
       </c>
     </row>
     <row r="419">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2.196871436300688</v>
+        <v>2.196871436300689</v>
       </c>
     </row>
     <row r="420">
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2.169571475777011</v>
+        <v>2.16957147577701</v>
       </c>
     </row>
     <row r="428">
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2.099612930460642</v>
+        <v>2.099612930460641</v>
       </c>
     </row>
     <row r="438">
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.993584976709155</v>
+        <v>1.993584976709154</v>
       </c>
     </row>
     <row r="454">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1.991359033064004</v>
+        <v>1.991359033064005</v>
       </c>
     </row>
     <row r="457">
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1.950290425806724</v>
+        <v>1.950290425806723</v>
       </c>
     </row>
     <row r="463">
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1.890642317658675</v>
+        <v>1.890642317658674</v>
       </c>
     </row>
     <row r="474">
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1.868333032424453</v>
+        <v>1.868333032424452</v>
       </c>
     </row>
     <row r="479">
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1.836264244019883</v>
+        <v>1.836264244019882</v>
       </c>
     </row>
     <row r="486">
@@ -6843,7 +6843,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1.773123455160446</v>
+        <v>1.773123455160445</v>
       </c>
     </row>
     <row r="494">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1.746363882895319</v>
+        <v>1.746363882895318</v>
       </c>
     </row>
     <row r="497">
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1.719440480946725</v>
+        <v>1.719440480946724</v>
       </c>
     </row>
     <row r="501">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1.671124439900589</v>
+        <v>1.671124439900588</v>
       </c>
     </row>
     <row r="504">
@@ -7064,7 +7064,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1.627965956698352</v>
+        <v>1.627965956698351</v>
       </c>
     </row>
     <row r="511">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1.52387726951777</v>
+        <v>1.523877269517771</v>
       </c>
     </row>
     <row r="518">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1.425171571036262</v>
+        <v>1.425171571036261</v>
       </c>
     </row>
     <row r="531">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1.398987820671151</v>
+        <v>1.398987820671152</v>
       </c>
     </row>
     <row r="532">
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1.276147349447841</v>
+        <v>1.27614734944784</v>
       </c>
     </row>
     <row r="543">
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1.272850633407213</v>
+        <v>1.272850633407212</v>
       </c>
     </row>
     <row r="544">
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>1.180322467804963</v>
+        <v>1.180322467804964</v>
       </c>
     </row>
     <row r="551">
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.6468563148920177</v>
+        <v>0.6468563148920176</v>
       </c>
     </row>
     <row r="564">
